--- a/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/CV.xlsx
+++ b/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/CV.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simjimin/Desktop/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjun\Downloads\testtt\PWD\projec\backend\EstimateRequestSystem\EstimateRequestSystem\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636DDB6-9737-C942-B841-734B8AAA9804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960D171-AA31-4DB2-9E3B-A4385F000F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="660" windowWidth="14180" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CV" sheetId="13" r:id="rId1"/>
+    <sheet name="CV" sheetId="15" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <r>
       <t xml:space="preserve"> - 발       신 : </t>
@@ -48,31 +48,31 @@
       </rPr>
       <t>㈜프로발</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 제       목 : DATA 확인 요청의 건</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 내       용 :  요청하신 내용의 유량 DATA로 SIZING 한 결과 아래와 같습니다. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TAG NO.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TYPE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SIZE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FLUID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -88,160 +88,180 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rated Cv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>REMARK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LINE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BODY </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TRIM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MAX.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NOR.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MIN.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UNIT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TRIM FORM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cv Sizing List</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PREDICTED SPL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Specific
 Gravity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Molecular Weight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bar(g)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>△P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TEMP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">OPENING LIFT </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shut-off Press.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Design Press.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Design Temp. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(cP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Density</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Viscosity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(148)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(27)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(25)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(31)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(43)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(39)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(35)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>* 작성일자 : 20●●년 ●●월 ●●일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - Project : </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>46 / 50</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 / 49</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 / 48</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>47 / 51</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  A. 155</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Project : 1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,17 +269,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -408,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,18 +449,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="62">
     <border>
@@ -1202,418 +1218,414 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="47" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="쉼표 [0] 2" xfId="4" xr:uid="{0F601BF8-B73D-C340-B0E6-78C120705A92}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="6" xr:uid="{BB685678-6865-4600-8FED-9892D2AF1F12}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준 3" xfId="3" xr:uid="{D2EE3D96-6FE2-A64D-9A37-25AAA5D9C4F2}"/>
+    <cellStyle name="표준 4" xfId="5" xr:uid="{FD8704BC-291F-4810-8DEC-25C59F280D71}"/>
     <cellStyle name="標準_記録計フォーム" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1925,2079 +1937,2151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E19001-768E-0A42-9876-F687B1127FA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A617423-FB9C-4417-80BA-4905A6D720D5}">
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="94" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="6.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="23" width="4.1640625" style="1" customWidth="1"/>
-    <col min="24" max="27" width="7.6640625" style="1" customWidth="1"/>
-    <col min="28" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.1640625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="3.83203125" style="1" customWidth="1"/>
-    <col min="45" max="260" width="8.83203125" style="1"/>
-    <col min="261" max="261" width="4" style="1" customWidth="1"/>
-    <col min="262" max="262" width="12.33203125" style="1" customWidth="1"/>
-    <col min="263" max="263" width="7.1640625" style="1" customWidth="1"/>
-    <col min="264" max="266" width="5.6640625" style="1" customWidth="1"/>
-    <col min="267" max="267" width="14.33203125" style="1" customWidth="1"/>
-    <col min="268" max="268" width="3.6640625" style="1" customWidth="1"/>
-    <col min="269" max="269" width="7.1640625" style="1" customWidth="1"/>
-    <col min="270" max="272" width="6.1640625" style="1" customWidth="1"/>
-    <col min="273" max="273" width="6.6640625" style="1" customWidth="1"/>
-    <col min="274" max="274" width="9.33203125" style="1" customWidth="1"/>
-    <col min="275" max="275" width="6.6640625" style="1" customWidth="1"/>
-    <col min="276" max="278" width="6.1640625" style="1" customWidth="1"/>
-    <col min="279" max="279" width="6.5" style="1" customWidth="1"/>
-    <col min="280" max="282" width="7.1640625" style="1" customWidth="1"/>
-    <col min="283" max="288" width="6.1640625" style="1" customWidth="1"/>
-    <col min="289" max="289" width="7" style="1" customWidth="1"/>
-    <col min="290" max="290" width="14.6640625" style="1" customWidth="1"/>
-    <col min="291" max="291" width="3.83203125" style="1" customWidth="1"/>
-    <col min="292" max="292" width="14.6640625" style="1" customWidth="1"/>
-    <col min="293" max="516" width="8.83203125" style="1"/>
-    <col min="517" max="517" width="4" style="1" customWidth="1"/>
-    <col min="518" max="518" width="12.33203125" style="1" customWidth="1"/>
-    <col min="519" max="519" width="7.1640625" style="1" customWidth="1"/>
-    <col min="520" max="522" width="5.6640625" style="1" customWidth="1"/>
-    <col min="523" max="523" width="14.33203125" style="1" customWidth="1"/>
-    <col min="524" max="524" width="3.6640625" style="1" customWidth="1"/>
-    <col min="525" max="525" width="7.1640625" style="1" customWidth="1"/>
-    <col min="526" max="528" width="6.1640625" style="1" customWidth="1"/>
-    <col min="529" max="529" width="6.6640625" style="1" customWidth="1"/>
-    <col min="530" max="530" width="9.33203125" style="1" customWidth="1"/>
-    <col min="531" max="531" width="6.6640625" style="1" customWidth="1"/>
-    <col min="532" max="534" width="6.1640625" style="1" customWidth="1"/>
-    <col min="535" max="535" width="6.5" style="1" customWidth="1"/>
-    <col min="536" max="538" width="7.1640625" style="1" customWidth="1"/>
-    <col min="539" max="544" width="6.1640625" style="1" customWidth="1"/>
-    <col min="545" max="545" width="7" style="1" customWidth="1"/>
-    <col min="546" max="546" width="14.6640625" style="1" customWidth="1"/>
-    <col min="547" max="547" width="3.83203125" style="1" customWidth="1"/>
-    <col min="548" max="548" width="14.6640625" style="1" customWidth="1"/>
-    <col min="549" max="772" width="8.83203125" style="1"/>
-    <col min="773" max="773" width="4" style="1" customWidth="1"/>
-    <col min="774" max="774" width="12.33203125" style="1" customWidth="1"/>
-    <col min="775" max="775" width="7.1640625" style="1" customWidth="1"/>
-    <col min="776" max="778" width="5.6640625" style="1" customWidth="1"/>
-    <col min="779" max="779" width="14.33203125" style="1" customWidth="1"/>
-    <col min="780" max="780" width="3.6640625" style="1" customWidth="1"/>
-    <col min="781" max="781" width="7.1640625" style="1" customWidth="1"/>
-    <col min="782" max="784" width="6.1640625" style="1" customWidth="1"/>
-    <col min="785" max="785" width="6.6640625" style="1" customWidth="1"/>
-    <col min="786" max="786" width="9.33203125" style="1" customWidth="1"/>
-    <col min="787" max="787" width="6.6640625" style="1" customWidth="1"/>
-    <col min="788" max="790" width="6.1640625" style="1" customWidth="1"/>
-    <col min="791" max="791" width="6.5" style="1" customWidth="1"/>
-    <col min="792" max="794" width="7.1640625" style="1" customWidth="1"/>
-    <col min="795" max="800" width="6.1640625" style="1" customWidth="1"/>
-    <col min="801" max="801" width="7" style="1" customWidth="1"/>
-    <col min="802" max="802" width="14.6640625" style="1" customWidth="1"/>
-    <col min="803" max="803" width="3.83203125" style="1" customWidth="1"/>
-    <col min="804" max="804" width="14.6640625" style="1" customWidth="1"/>
-    <col min="805" max="1028" width="8.83203125" style="1"/>
-    <col min="1029" max="1029" width="4" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.33203125" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1032" max="1034" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1036" max="1036" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1038" max="1040" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1041" max="1041" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1042" max="1042" width="9.33203125" style="1" customWidth="1"/>
-    <col min="1043" max="1043" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1044" max="1046" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1047" max="1047" width="6.5" style="1" customWidth="1"/>
-    <col min="1048" max="1050" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1051" max="1056" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1057" max="1057" width="7" style="1" customWidth="1"/>
-    <col min="1058" max="1058" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1059" max="1059" width="3.83203125" style="1" customWidth="1"/>
-    <col min="1060" max="1060" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1061" max="1284" width="8.83203125" style="1"/>
-    <col min="1285" max="1285" width="4" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.33203125" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1288" max="1290" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1292" max="1292" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1294" max="1296" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1297" max="1297" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1298" max="1298" width="9.33203125" style="1" customWidth="1"/>
-    <col min="1299" max="1299" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1300" max="1302" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1303" max="1303" width="6.5" style="1" customWidth="1"/>
-    <col min="1304" max="1306" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1307" max="1312" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1313" max="1313" width="7" style="1" customWidth="1"/>
-    <col min="1314" max="1314" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1315" max="1315" width="3.83203125" style="1" customWidth="1"/>
-    <col min="1316" max="1316" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1317" max="1540" width="8.83203125" style="1"/>
-    <col min="1541" max="1541" width="4" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.33203125" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1544" max="1546" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1548" max="1548" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1550" max="1552" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1553" max="1553" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1554" max="1554" width="9.33203125" style="1" customWidth="1"/>
-    <col min="1555" max="1555" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1556" max="1558" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1559" max="1559" width="6.5" style="1" customWidth="1"/>
-    <col min="1560" max="1562" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1563" max="1568" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1569" max="1569" width="7" style="1" customWidth="1"/>
-    <col min="1570" max="1570" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1571" max="1571" width="3.83203125" style="1" customWidth="1"/>
-    <col min="1572" max="1572" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1573" max="1796" width="8.83203125" style="1"/>
-    <col min="1797" max="1797" width="4" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.33203125" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1800" max="1802" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="14.33203125" style="1" customWidth="1"/>
-    <col min="1804" max="1804" width="3.6640625" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1806" max="1808" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1809" max="1809" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1810" max="1810" width="9.33203125" style="1" customWidth="1"/>
-    <col min="1811" max="1811" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1812" max="1814" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1815" max="1815" width="6.5" style="1" customWidth="1"/>
-    <col min="1816" max="1818" width="7.1640625" style="1" customWidth="1"/>
-    <col min="1819" max="1824" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1825" max="1825" width="7" style="1" customWidth="1"/>
-    <col min="1826" max="1826" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1827" max="1827" width="3.83203125" style="1" customWidth="1"/>
-    <col min="1828" max="1828" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1829" max="2052" width="8.83203125" style="1"/>
-    <col min="2053" max="2053" width="4" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2056" max="2058" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2060" max="2060" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2062" max="2064" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2065" max="2065" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2066" max="2066" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2067" max="2067" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2068" max="2070" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2071" max="2071" width="6.5" style="1" customWidth="1"/>
-    <col min="2072" max="2074" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2075" max="2080" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2081" max="2081" width="7" style="1" customWidth="1"/>
-    <col min="2082" max="2082" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2083" max="2083" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2084" max="2084" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2085" max="2308" width="8.83203125" style="1"/>
-    <col min="2309" max="2309" width="4" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2312" max="2314" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2316" max="2316" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2318" max="2320" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2321" max="2321" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2322" max="2322" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2323" max="2323" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2324" max="2326" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2327" max="2327" width="6.5" style="1" customWidth="1"/>
-    <col min="2328" max="2330" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2331" max="2336" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2337" max="2337" width="7" style="1" customWidth="1"/>
-    <col min="2338" max="2338" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2339" max="2339" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2340" max="2340" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2341" max="2564" width="8.83203125" style="1"/>
-    <col min="2565" max="2565" width="4" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2568" max="2570" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2572" max="2572" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2574" max="2576" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2577" max="2577" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2578" max="2578" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2579" max="2579" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2580" max="2582" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2583" max="2583" width="6.5" style="1" customWidth="1"/>
-    <col min="2584" max="2586" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2587" max="2592" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2593" max="2593" width="7" style="1" customWidth="1"/>
-    <col min="2594" max="2594" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2595" max="2595" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2596" max="2596" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2597" max="2820" width="8.83203125" style="1"/>
-    <col min="2821" max="2821" width="4" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2824" max="2826" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2828" max="2828" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2830" max="2832" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2833" max="2833" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2834" max="2834" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2835" max="2835" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2836" max="2838" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2839" max="2839" width="6.5" style="1" customWidth="1"/>
-    <col min="2840" max="2842" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2843" max="2848" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2849" max="2849" width="7" style="1" customWidth="1"/>
-    <col min="2850" max="2850" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2851" max="2851" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2852" max="2852" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2853" max="3076" width="8.83203125" style="1"/>
-    <col min="3077" max="3077" width="4" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3080" max="3082" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3084" max="3084" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3086" max="3088" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3089" max="3089" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3090" max="3090" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3091" max="3091" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3092" max="3094" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3095" max="3095" width="6.5" style="1" customWidth="1"/>
-    <col min="3096" max="3098" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3099" max="3104" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3105" max="3105" width="7" style="1" customWidth="1"/>
-    <col min="3106" max="3106" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3107" max="3107" width="3.83203125" style="1" customWidth="1"/>
-    <col min="3108" max="3108" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3109" max="3332" width="8.83203125" style="1"/>
-    <col min="3333" max="3333" width="4" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3336" max="3338" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3340" max="3340" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3342" max="3344" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3345" max="3345" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3346" max="3346" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3347" max="3347" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3348" max="3350" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3351" max="3351" width="6.5" style="1" customWidth="1"/>
-    <col min="3352" max="3354" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3355" max="3360" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3361" max="3361" width="7" style="1" customWidth="1"/>
-    <col min="3362" max="3362" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3363" max="3363" width="3.83203125" style="1" customWidth="1"/>
-    <col min="3364" max="3364" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3365" max="3588" width="8.83203125" style="1"/>
-    <col min="3589" max="3589" width="4" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3592" max="3594" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3596" max="3596" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3598" max="3600" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3601" max="3601" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3602" max="3602" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3603" max="3603" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3604" max="3606" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3607" max="3607" width="6.5" style="1" customWidth="1"/>
-    <col min="3608" max="3610" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3611" max="3616" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3617" max="3617" width="7" style="1" customWidth="1"/>
-    <col min="3618" max="3618" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3619" max="3619" width="3.83203125" style="1" customWidth="1"/>
-    <col min="3620" max="3620" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3621" max="3844" width="8.83203125" style="1"/>
-    <col min="3845" max="3845" width="4" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3848" max="3850" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3852" max="3852" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3854" max="3856" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3857" max="3857" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3858" max="3858" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3859" max="3859" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3860" max="3862" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3863" max="3863" width="6.5" style="1" customWidth="1"/>
-    <col min="3864" max="3866" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3867" max="3872" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3873" max="3873" width="7" style="1" customWidth="1"/>
-    <col min="3874" max="3874" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3875" max="3875" width="3.83203125" style="1" customWidth="1"/>
-    <col min="3876" max="3876" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3877" max="4100" width="8.83203125" style="1"/>
-    <col min="4101" max="4101" width="4" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4104" max="4106" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4108" max="4108" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4110" max="4112" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4113" max="4113" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4114" max="4114" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4115" max="4115" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4116" max="4118" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4119" max="4119" width="6.5" style="1" customWidth="1"/>
-    <col min="4120" max="4122" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4123" max="4128" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4129" max="4129" width="7" style="1" customWidth="1"/>
-    <col min="4130" max="4130" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4131" max="4131" width="3.83203125" style="1" customWidth="1"/>
-    <col min="4132" max="4132" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4133" max="4356" width="8.83203125" style="1"/>
-    <col min="4357" max="4357" width="4" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4360" max="4362" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4364" max="4364" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4366" max="4368" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4369" max="4369" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4370" max="4370" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4371" max="4371" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4372" max="4374" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4375" max="4375" width="6.5" style="1" customWidth="1"/>
-    <col min="4376" max="4378" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4379" max="4384" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4385" max="4385" width="7" style="1" customWidth="1"/>
-    <col min="4386" max="4386" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4387" max="4387" width="3.83203125" style="1" customWidth="1"/>
-    <col min="4388" max="4388" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4389" max="4612" width="8.83203125" style="1"/>
-    <col min="4613" max="4613" width="4" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4616" max="4618" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4620" max="4620" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4622" max="4624" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4625" max="4625" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4626" max="4626" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4627" max="4627" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4628" max="4630" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4631" max="4631" width="6.5" style="1" customWidth="1"/>
-    <col min="4632" max="4634" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4635" max="4640" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4641" max="4641" width="7" style="1" customWidth="1"/>
-    <col min="4642" max="4642" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4643" max="4643" width="3.83203125" style="1" customWidth="1"/>
-    <col min="4644" max="4644" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4645" max="4868" width="8.83203125" style="1"/>
-    <col min="4869" max="4869" width="4" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4872" max="4874" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4876" max="4876" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4878" max="4880" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4881" max="4881" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4882" max="4882" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4883" max="4883" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4884" max="4886" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4887" max="4887" width="6.5" style="1" customWidth="1"/>
-    <col min="4888" max="4890" width="7.1640625" style="1" customWidth="1"/>
-    <col min="4891" max="4896" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4897" max="4897" width="7" style="1" customWidth="1"/>
-    <col min="4898" max="4898" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4899" max="4899" width="3.83203125" style="1" customWidth="1"/>
-    <col min="4900" max="4900" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4901" max="5124" width="8.83203125" style="1"/>
-    <col min="5125" max="5125" width="4" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5128" max="5130" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5132" max="5132" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5134" max="5136" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5137" max="5137" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5138" max="5138" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5139" max="5139" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5140" max="5142" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5143" max="5143" width="6.5" style="1" customWidth="1"/>
-    <col min="5144" max="5146" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5147" max="5152" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5153" max="5153" width="7" style="1" customWidth="1"/>
-    <col min="5154" max="5154" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5155" max="5155" width="3.83203125" style="1" customWidth="1"/>
-    <col min="5156" max="5156" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5157" max="5380" width="8.83203125" style="1"/>
-    <col min="5381" max="5381" width="4" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5384" max="5386" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5388" max="5388" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5390" max="5392" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5393" max="5393" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5394" max="5394" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5395" max="5395" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5396" max="5398" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5399" max="5399" width="6.5" style="1" customWidth="1"/>
-    <col min="5400" max="5402" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5403" max="5408" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5409" max="5409" width="7" style="1" customWidth="1"/>
-    <col min="5410" max="5410" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5411" max="5411" width="3.83203125" style="1" customWidth="1"/>
-    <col min="5412" max="5412" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5413" max="5636" width="8.83203125" style="1"/>
-    <col min="5637" max="5637" width="4" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5640" max="5642" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5644" max="5644" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5646" max="5648" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5649" max="5649" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5650" max="5650" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5651" max="5651" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5652" max="5654" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5655" max="5655" width="6.5" style="1" customWidth="1"/>
-    <col min="5656" max="5658" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5659" max="5664" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5665" max="5665" width="7" style="1" customWidth="1"/>
-    <col min="5666" max="5666" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5667" max="5667" width="3.83203125" style="1" customWidth="1"/>
-    <col min="5668" max="5668" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5669" max="5892" width="8.83203125" style="1"/>
-    <col min="5893" max="5893" width="4" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5896" max="5898" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5900" max="5900" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5902" max="5904" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5905" max="5905" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5906" max="5906" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5907" max="5907" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5908" max="5910" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5911" max="5911" width="6.5" style="1" customWidth="1"/>
-    <col min="5912" max="5914" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5915" max="5920" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5921" max="5921" width="7" style="1" customWidth="1"/>
-    <col min="5922" max="5922" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5923" max="5923" width="3.83203125" style="1" customWidth="1"/>
-    <col min="5924" max="5924" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5925" max="6148" width="8.83203125" style="1"/>
-    <col min="6149" max="6149" width="4" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6152" max="6154" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6156" max="6156" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6158" max="6160" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6161" max="6161" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6162" max="6162" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6163" max="6163" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6164" max="6166" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6167" max="6167" width="6.5" style="1" customWidth="1"/>
-    <col min="6168" max="6170" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6171" max="6176" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6177" max="6177" width="7" style="1" customWidth="1"/>
-    <col min="6178" max="6178" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6179" max="6179" width="3.83203125" style="1" customWidth="1"/>
-    <col min="6180" max="6180" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6181" max="6404" width="8.83203125" style="1"/>
-    <col min="6405" max="6405" width="4" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6408" max="6410" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6412" max="6412" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6414" max="6416" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6417" max="6417" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6418" max="6418" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6419" max="6419" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6420" max="6422" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6423" max="6423" width="6.5" style="1" customWidth="1"/>
-    <col min="6424" max="6426" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6427" max="6432" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6433" max="6433" width="7" style="1" customWidth="1"/>
-    <col min="6434" max="6434" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6435" max="6435" width="3.83203125" style="1" customWidth="1"/>
-    <col min="6436" max="6436" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6437" max="6660" width="8.83203125" style="1"/>
-    <col min="6661" max="6661" width="4" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6664" max="6666" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6668" max="6668" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6670" max="6672" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6673" max="6673" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6674" max="6674" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6675" max="6675" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6676" max="6678" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6679" max="6679" width="6.5" style="1" customWidth="1"/>
-    <col min="6680" max="6682" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6683" max="6688" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6689" max="6689" width="7" style="1" customWidth="1"/>
-    <col min="6690" max="6690" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6691" max="6691" width="3.83203125" style="1" customWidth="1"/>
-    <col min="6692" max="6692" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6693" max="6916" width="8.83203125" style="1"/>
-    <col min="6917" max="6917" width="4" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6920" max="6922" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6924" max="6924" width="3.6640625" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6926" max="6928" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6929" max="6929" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6930" max="6930" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6931" max="6931" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6932" max="6934" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6935" max="6935" width="6.5" style="1" customWidth="1"/>
-    <col min="6936" max="6938" width="7.1640625" style="1" customWidth="1"/>
-    <col min="6939" max="6944" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6945" max="6945" width="7" style="1" customWidth="1"/>
-    <col min="6946" max="6946" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6947" max="6947" width="3.83203125" style="1" customWidth="1"/>
-    <col min="6948" max="6948" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6949" max="7172" width="8.83203125" style="1"/>
-    <col min="7173" max="7173" width="4" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7176" max="7178" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7180" max="7180" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7182" max="7184" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7185" max="7185" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7186" max="7186" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7187" max="7187" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7188" max="7190" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7191" max="7191" width="6.5" style="1" customWidth="1"/>
-    <col min="7192" max="7194" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7195" max="7200" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7201" max="7201" width="7" style="1" customWidth="1"/>
-    <col min="7202" max="7202" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7203" max="7203" width="3.83203125" style="1" customWidth="1"/>
-    <col min="7204" max="7204" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7205" max="7428" width="8.83203125" style="1"/>
-    <col min="7429" max="7429" width="4" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7432" max="7434" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7436" max="7436" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7438" max="7440" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7441" max="7441" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7442" max="7442" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7443" max="7443" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7444" max="7446" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7447" max="7447" width="6.5" style="1" customWidth="1"/>
-    <col min="7448" max="7450" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7451" max="7456" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7457" max="7457" width="7" style="1" customWidth="1"/>
-    <col min="7458" max="7458" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7459" max="7459" width="3.83203125" style="1" customWidth="1"/>
-    <col min="7460" max="7460" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7461" max="7684" width="8.83203125" style="1"/>
-    <col min="7685" max="7685" width="4" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7688" max="7690" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7692" max="7692" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7694" max="7696" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7697" max="7697" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7698" max="7698" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7699" max="7699" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7700" max="7702" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7703" max="7703" width="6.5" style="1" customWidth="1"/>
-    <col min="7704" max="7706" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7707" max="7712" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7713" max="7713" width="7" style="1" customWidth="1"/>
-    <col min="7714" max="7714" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7715" max="7715" width="3.83203125" style="1" customWidth="1"/>
-    <col min="7716" max="7716" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7717" max="7940" width="8.83203125" style="1"/>
-    <col min="7941" max="7941" width="4" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7944" max="7946" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7948" max="7948" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7950" max="7952" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7953" max="7953" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7954" max="7954" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7955" max="7955" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7956" max="7958" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7959" max="7959" width="6.5" style="1" customWidth="1"/>
-    <col min="7960" max="7962" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7963" max="7968" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7969" max="7969" width="7" style="1" customWidth="1"/>
-    <col min="7970" max="7970" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7971" max="7971" width="3.83203125" style="1" customWidth="1"/>
-    <col min="7972" max="7972" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7973" max="8196" width="8.83203125" style="1"/>
-    <col min="8197" max="8197" width="4" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8200" max="8202" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8204" max="8204" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8206" max="8208" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8209" max="8209" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8210" max="8210" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8211" max="8211" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8212" max="8214" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8215" max="8215" width="6.5" style="1" customWidth="1"/>
-    <col min="8216" max="8218" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8219" max="8224" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8225" max="8225" width="7" style="1" customWidth="1"/>
-    <col min="8226" max="8226" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8227" max="8227" width="3.83203125" style="1" customWidth="1"/>
-    <col min="8228" max="8228" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8229" max="8452" width="8.83203125" style="1"/>
-    <col min="8453" max="8453" width="4" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8456" max="8458" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8460" max="8460" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8462" max="8464" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8465" max="8465" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8466" max="8466" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8467" max="8467" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8468" max="8470" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8471" max="8471" width="6.5" style="1" customWidth="1"/>
-    <col min="8472" max="8474" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8475" max="8480" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8481" max="8481" width="7" style="1" customWidth="1"/>
-    <col min="8482" max="8482" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8483" max="8483" width="3.83203125" style="1" customWidth="1"/>
-    <col min="8484" max="8484" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8485" max="8708" width="8.83203125" style="1"/>
-    <col min="8709" max="8709" width="4" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8712" max="8714" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8716" max="8716" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8718" max="8720" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8721" max="8721" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8722" max="8722" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8723" max="8723" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8724" max="8726" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8727" max="8727" width="6.5" style="1" customWidth="1"/>
-    <col min="8728" max="8730" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8731" max="8736" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8737" max="8737" width="7" style="1" customWidth="1"/>
-    <col min="8738" max="8738" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8739" max="8739" width="3.83203125" style="1" customWidth="1"/>
-    <col min="8740" max="8740" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8741" max="8964" width="8.83203125" style="1"/>
-    <col min="8965" max="8965" width="4" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8968" max="8970" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8972" max="8972" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8974" max="8976" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8977" max="8977" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8978" max="8978" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8979" max="8979" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8980" max="8982" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8983" max="8983" width="6.5" style="1" customWidth="1"/>
-    <col min="8984" max="8986" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8987" max="8992" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8993" max="8993" width="7" style="1" customWidth="1"/>
-    <col min="8994" max="8994" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8995" max="8995" width="3.83203125" style="1" customWidth="1"/>
-    <col min="8996" max="8996" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8997" max="9220" width="8.83203125" style="1"/>
-    <col min="9221" max="9221" width="4" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9224" max="9226" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9228" max="9228" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9230" max="9232" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9233" max="9233" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9234" max="9234" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9235" max="9235" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9236" max="9238" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9239" max="9239" width="6.5" style="1" customWidth="1"/>
-    <col min="9240" max="9242" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9243" max="9248" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9249" max="9249" width="7" style="1" customWidth="1"/>
-    <col min="9250" max="9250" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9251" max="9251" width="3.83203125" style="1" customWidth="1"/>
-    <col min="9252" max="9252" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9253" max="9476" width="8.83203125" style="1"/>
-    <col min="9477" max="9477" width="4" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9480" max="9482" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9484" max="9484" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9486" max="9488" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9489" max="9489" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9490" max="9490" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9491" max="9491" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9492" max="9494" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9495" max="9495" width="6.5" style="1" customWidth="1"/>
-    <col min="9496" max="9498" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9499" max="9504" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9505" max="9505" width="7" style="1" customWidth="1"/>
-    <col min="9506" max="9506" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9507" max="9507" width="3.83203125" style="1" customWidth="1"/>
-    <col min="9508" max="9508" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9509" max="9732" width="8.83203125" style="1"/>
-    <col min="9733" max="9733" width="4" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9736" max="9738" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9740" max="9740" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9742" max="9744" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9745" max="9745" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9746" max="9746" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9747" max="9747" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9748" max="9750" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9751" max="9751" width="6.5" style="1" customWidth="1"/>
-    <col min="9752" max="9754" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9755" max="9760" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9761" max="9761" width="7" style="1" customWidth="1"/>
-    <col min="9762" max="9762" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9763" max="9763" width="3.83203125" style="1" customWidth="1"/>
-    <col min="9764" max="9764" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9765" max="9988" width="8.83203125" style="1"/>
-    <col min="9989" max="9989" width="4" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9992" max="9994" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9996" max="9996" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9998" max="10000" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10001" max="10001" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10002" max="10002" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10003" max="10003" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10004" max="10006" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10007" max="10007" width="6.5" style="1" customWidth="1"/>
-    <col min="10008" max="10010" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10011" max="10016" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10017" max="10017" width="7" style="1" customWidth="1"/>
-    <col min="10018" max="10018" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10019" max="10019" width="3.83203125" style="1" customWidth="1"/>
-    <col min="10020" max="10020" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10021" max="10244" width="8.83203125" style="1"/>
-    <col min="10245" max="10245" width="4" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10248" max="10250" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10252" max="10252" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10254" max="10256" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10257" max="10257" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10258" max="10258" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10259" max="10259" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10260" max="10262" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10263" max="10263" width="6.5" style="1" customWidth="1"/>
-    <col min="10264" max="10266" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10267" max="10272" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10273" max="10273" width="7" style="1" customWidth="1"/>
-    <col min="10274" max="10274" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10275" max="10275" width="3.83203125" style="1" customWidth="1"/>
-    <col min="10276" max="10276" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10277" max="10500" width="8.83203125" style="1"/>
-    <col min="10501" max="10501" width="4" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10504" max="10506" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10508" max="10508" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10510" max="10512" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10513" max="10513" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10514" max="10514" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10515" max="10515" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10516" max="10518" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10519" max="10519" width="6.5" style="1" customWidth="1"/>
-    <col min="10520" max="10522" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10523" max="10528" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10529" max="10529" width="7" style="1" customWidth="1"/>
-    <col min="10530" max="10530" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10531" max="10531" width="3.83203125" style="1" customWidth="1"/>
-    <col min="10532" max="10532" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10533" max="10756" width="8.83203125" style="1"/>
-    <col min="10757" max="10757" width="4" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10760" max="10762" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10764" max="10764" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10766" max="10768" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10769" max="10769" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10770" max="10770" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10771" max="10771" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10772" max="10774" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10775" max="10775" width="6.5" style="1" customWidth="1"/>
-    <col min="10776" max="10778" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10779" max="10784" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10785" max="10785" width="7" style="1" customWidth="1"/>
-    <col min="10786" max="10786" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10787" max="10787" width="3.83203125" style="1" customWidth="1"/>
-    <col min="10788" max="10788" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10789" max="11012" width="8.83203125" style="1"/>
-    <col min="11013" max="11013" width="4" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11016" max="11018" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11020" max="11020" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11022" max="11024" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11025" max="11025" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11026" max="11026" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11027" max="11027" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11028" max="11030" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11031" max="11031" width="6.5" style="1" customWidth="1"/>
-    <col min="11032" max="11034" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11035" max="11040" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11041" max="11041" width="7" style="1" customWidth="1"/>
-    <col min="11042" max="11042" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11043" max="11043" width="3.83203125" style="1" customWidth="1"/>
-    <col min="11044" max="11044" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11045" max="11268" width="8.83203125" style="1"/>
-    <col min="11269" max="11269" width="4" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11272" max="11274" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11276" max="11276" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11278" max="11280" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11281" max="11281" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11282" max="11282" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11283" max="11283" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11284" max="11286" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11287" max="11287" width="6.5" style="1" customWidth="1"/>
-    <col min="11288" max="11290" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11291" max="11296" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11297" max="11297" width="7" style="1" customWidth="1"/>
-    <col min="11298" max="11298" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11299" max="11299" width="3.83203125" style="1" customWidth="1"/>
-    <col min="11300" max="11300" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11301" max="11524" width="8.83203125" style="1"/>
-    <col min="11525" max="11525" width="4" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11528" max="11530" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11532" max="11532" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11534" max="11536" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11537" max="11537" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11538" max="11538" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11539" max="11539" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11540" max="11542" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11543" max="11543" width="6.5" style="1" customWidth="1"/>
-    <col min="11544" max="11546" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11547" max="11552" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11553" max="11553" width="7" style="1" customWidth="1"/>
-    <col min="11554" max="11554" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11555" max="11555" width="3.83203125" style="1" customWidth="1"/>
-    <col min="11556" max="11556" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11557" max="11780" width="8.83203125" style="1"/>
-    <col min="11781" max="11781" width="4" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11784" max="11786" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11788" max="11788" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11790" max="11792" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11793" max="11793" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11794" max="11794" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11795" max="11795" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11796" max="11798" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11799" max="11799" width="6.5" style="1" customWidth="1"/>
-    <col min="11800" max="11802" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11803" max="11808" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11809" max="11809" width="7" style="1" customWidth="1"/>
-    <col min="11810" max="11810" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11811" max="11811" width="3.83203125" style="1" customWidth="1"/>
-    <col min="11812" max="11812" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11813" max="12036" width="8.83203125" style="1"/>
-    <col min="12037" max="12037" width="4" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.33203125" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12040" max="12042" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12044" max="12044" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12046" max="12048" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12049" max="12049" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12050" max="12050" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12051" max="12051" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12052" max="12054" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12055" max="12055" width="6.5" style="1" customWidth="1"/>
-    <col min="12056" max="12058" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12059" max="12064" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12065" max="12065" width="7" style="1" customWidth="1"/>
-    <col min="12066" max="12066" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12067" max="12067" width="3.83203125" style="1" customWidth="1"/>
-    <col min="12068" max="12068" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12069" max="12292" width="8.83203125" style="1"/>
-    <col min="12293" max="12293" width="4" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.33203125" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12296" max="12298" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12300" max="12300" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12302" max="12304" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12305" max="12305" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12306" max="12306" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12307" max="12307" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12308" max="12310" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12311" max="12311" width="6.5" style="1" customWidth="1"/>
-    <col min="12312" max="12314" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12315" max="12320" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12321" max="12321" width="7" style="1" customWidth="1"/>
-    <col min="12322" max="12322" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12323" max="12323" width="3.83203125" style="1" customWidth="1"/>
-    <col min="12324" max="12324" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12325" max="12548" width="8.83203125" style="1"/>
-    <col min="12549" max="12549" width="4" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.33203125" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12552" max="12554" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12556" max="12556" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12558" max="12560" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12561" max="12561" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12562" max="12562" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12563" max="12563" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12564" max="12566" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12567" max="12567" width="6.5" style="1" customWidth="1"/>
-    <col min="12568" max="12570" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12571" max="12576" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12577" max="12577" width="7" style="1" customWidth="1"/>
-    <col min="12578" max="12578" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12579" max="12579" width="3.83203125" style="1" customWidth="1"/>
-    <col min="12580" max="12580" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12581" max="12804" width="8.83203125" style="1"/>
-    <col min="12805" max="12805" width="4" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.33203125" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12808" max="12810" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12812" max="12812" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12814" max="12816" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12817" max="12817" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12818" max="12818" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12819" max="12819" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12820" max="12822" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12823" max="12823" width="6.5" style="1" customWidth="1"/>
-    <col min="12824" max="12826" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12827" max="12832" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12833" max="12833" width="7" style="1" customWidth="1"/>
-    <col min="12834" max="12834" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12835" max="12835" width="3.83203125" style="1" customWidth="1"/>
-    <col min="12836" max="12836" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12837" max="13060" width="8.83203125" style="1"/>
-    <col min="13061" max="13061" width="4" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13064" max="13066" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13068" max="13068" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13070" max="13072" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13073" max="13073" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13074" max="13074" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13075" max="13075" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13076" max="13078" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13079" max="13079" width="6.5" style="1" customWidth="1"/>
-    <col min="13080" max="13082" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13083" max="13088" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13089" max="13089" width="7" style="1" customWidth="1"/>
-    <col min="13090" max="13090" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13091" max="13091" width="3.83203125" style="1" customWidth="1"/>
-    <col min="13092" max="13092" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13093" max="13316" width="8.83203125" style="1"/>
-    <col min="13317" max="13317" width="4" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13320" max="13322" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13324" max="13324" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13326" max="13328" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13329" max="13329" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13330" max="13330" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13331" max="13331" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13332" max="13334" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13335" max="13335" width="6.5" style="1" customWidth="1"/>
-    <col min="13336" max="13338" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13339" max="13344" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13345" max="13345" width="7" style="1" customWidth="1"/>
-    <col min="13346" max="13346" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13347" max="13347" width="3.83203125" style="1" customWidth="1"/>
-    <col min="13348" max="13348" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13349" max="13572" width="8.83203125" style="1"/>
-    <col min="13573" max="13573" width="4" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13576" max="13578" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13580" max="13580" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13582" max="13584" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13585" max="13585" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13586" max="13586" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13587" max="13587" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13588" max="13590" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13591" max="13591" width="6.5" style="1" customWidth="1"/>
-    <col min="13592" max="13594" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13595" max="13600" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13601" max="13601" width="7" style="1" customWidth="1"/>
-    <col min="13602" max="13602" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13603" max="13603" width="3.83203125" style="1" customWidth="1"/>
-    <col min="13604" max="13604" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13605" max="13828" width="8.83203125" style="1"/>
-    <col min="13829" max="13829" width="4" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13832" max="13834" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13836" max="13836" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13838" max="13840" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13841" max="13841" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13842" max="13842" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13843" max="13843" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13844" max="13846" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13847" max="13847" width="6.5" style="1" customWidth="1"/>
-    <col min="13848" max="13850" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13851" max="13856" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13857" max="13857" width="7" style="1" customWidth="1"/>
-    <col min="13858" max="13858" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13859" max="13859" width="3.83203125" style="1" customWidth="1"/>
-    <col min="13860" max="13860" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13861" max="14084" width="8.83203125" style="1"/>
-    <col min="14085" max="14085" width="4" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14088" max="14090" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14092" max="14092" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14094" max="14096" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14097" max="14097" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14098" max="14098" width="9.33203125" style="1" customWidth="1"/>
-    <col min="14099" max="14099" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14100" max="14102" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14103" max="14103" width="6.5" style="1" customWidth="1"/>
-    <col min="14104" max="14106" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14107" max="14112" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14113" max="14113" width="7" style="1" customWidth="1"/>
-    <col min="14114" max="14114" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14115" max="14115" width="3.83203125" style="1" customWidth="1"/>
-    <col min="14116" max="14116" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14117" max="14340" width="8.83203125" style="1"/>
-    <col min="14341" max="14341" width="4" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14344" max="14346" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14348" max="14348" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14350" max="14352" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14353" max="14353" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14354" max="14354" width="9.33203125" style="1" customWidth="1"/>
-    <col min="14355" max="14355" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14356" max="14358" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14359" max="14359" width="6.5" style="1" customWidth="1"/>
-    <col min="14360" max="14362" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14363" max="14368" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14369" max="14369" width="7" style="1" customWidth="1"/>
-    <col min="14370" max="14370" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14371" max="14371" width="3.83203125" style="1" customWidth="1"/>
-    <col min="14372" max="14372" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14373" max="14596" width="8.83203125" style="1"/>
-    <col min="14597" max="14597" width="4" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14600" max="14602" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14604" max="14604" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14606" max="14608" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14609" max="14609" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14610" max="14610" width="9.33203125" style="1" customWidth="1"/>
-    <col min="14611" max="14611" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14612" max="14614" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14615" max="14615" width="6.5" style="1" customWidth="1"/>
-    <col min="14616" max="14618" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14619" max="14624" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14625" max="14625" width="7" style="1" customWidth="1"/>
-    <col min="14626" max="14626" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14627" max="14627" width="3.83203125" style="1" customWidth="1"/>
-    <col min="14628" max="14628" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14629" max="14852" width="8.83203125" style="1"/>
-    <col min="14853" max="14853" width="4" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14856" max="14858" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14860" max="14860" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14862" max="14864" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14865" max="14865" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14866" max="14866" width="9.33203125" style="1" customWidth="1"/>
-    <col min="14867" max="14867" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14868" max="14870" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14871" max="14871" width="6.5" style="1" customWidth="1"/>
-    <col min="14872" max="14874" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14875" max="14880" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14881" max="14881" width="7" style="1" customWidth="1"/>
-    <col min="14882" max="14882" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14883" max="14883" width="3.83203125" style="1" customWidth="1"/>
-    <col min="14884" max="14884" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14885" max="15108" width="8.83203125" style="1"/>
-    <col min="15109" max="15109" width="4" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15112" max="15114" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15116" max="15116" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15118" max="15120" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15121" max="15121" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15122" max="15122" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15123" max="15123" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15124" max="15126" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15127" max="15127" width="6.5" style="1" customWidth="1"/>
-    <col min="15128" max="15130" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15131" max="15136" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15137" max="15137" width="7" style="1" customWidth="1"/>
-    <col min="15138" max="15138" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15139" max="15139" width="3.83203125" style="1" customWidth="1"/>
-    <col min="15140" max="15140" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15141" max="15364" width="8.83203125" style="1"/>
-    <col min="15365" max="15365" width="4" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15368" max="15370" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15372" max="15372" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15374" max="15376" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15377" max="15377" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15378" max="15378" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15379" max="15379" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15380" max="15382" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15383" max="15383" width="6.5" style="1" customWidth="1"/>
-    <col min="15384" max="15386" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15387" max="15392" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15393" max="15393" width="7" style="1" customWidth="1"/>
-    <col min="15394" max="15394" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15395" max="15395" width="3.83203125" style="1" customWidth="1"/>
-    <col min="15396" max="15396" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15397" max="15620" width="8.83203125" style="1"/>
-    <col min="15621" max="15621" width="4" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15624" max="15626" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15628" max="15628" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15630" max="15632" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15633" max="15633" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15634" max="15634" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15635" max="15635" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15636" max="15638" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15639" max="15639" width="6.5" style="1" customWidth="1"/>
-    <col min="15640" max="15642" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15643" max="15648" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15649" max="15649" width="7" style="1" customWidth="1"/>
-    <col min="15650" max="15650" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15651" max="15651" width="3.83203125" style="1" customWidth="1"/>
-    <col min="15652" max="15652" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15653" max="15876" width="8.83203125" style="1"/>
-    <col min="15877" max="15877" width="4" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15880" max="15882" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15884" max="15884" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15886" max="15888" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15889" max="15889" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15890" max="15890" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15891" max="15891" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15892" max="15894" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15895" max="15895" width="6.5" style="1" customWidth="1"/>
-    <col min="15896" max="15898" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15899" max="15904" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15905" max="15905" width="7" style="1" customWidth="1"/>
-    <col min="15906" max="15906" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15907" max="15907" width="3.83203125" style="1" customWidth="1"/>
-    <col min="15908" max="15908" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15909" max="16132" width="8.83203125" style="1"/>
-    <col min="16133" max="16133" width="4" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.33203125" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="7.1640625" style="1" customWidth="1"/>
-    <col min="16136" max="16138" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="14.33203125" style="1" customWidth="1"/>
-    <col min="16140" max="16140" width="3.6640625" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="7.1640625" style="1" customWidth="1"/>
-    <col min="16142" max="16144" width="6.1640625" style="1" customWidth="1"/>
-    <col min="16145" max="16145" width="6.6640625" style="1" customWidth="1"/>
-    <col min="16146" max="16146" width="9.33203125" style="1" customWidth="1"/>
-    <col min="16147" max="16147" width="6.6640625" style="1" customWidth="1"/>
-    <col min="16148" max="16150" width="6.1640625" style="1" customWidth="1"/>
-    <col min="16151" max="16151" width="6.5" style="1" customWidth="1"/>
-    <col min="16152" max="16154" width="7.1640625" style="1" customWidth="1"/>
-    <col min="16155" max="16160" width="6.1640625" style="1" customWidth="1"/>
-    <col min="16161" max="16161" width="7" style="1" customWidth="1"/>
-    <col min="16162" max="16162" width="14.6640625" style="1" customWidth="1"/>
-    <col min="16163" max="16163" width="3.83203125" style="1" customWidth="1"/>
-    <col min="16164" max="16164" width="14.6640625" style="1" customWidth="1"/>
-    <col min="16165" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="4.88671875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="6.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="23" width="3.6640625" style="1" customWidth="1"/>
+    <col min="24" max="27" width="6.77734375" style="1" customWidth="1"/>
+    <col min="28" max="31" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.21875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.88671875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="3.44140625" style="1" customWidth="1"/>
+    <col min="45" max="260" width="8.88671875" style="1"/>
+    <col min="261" max="261" width="3.5546875" style="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" customWidth="1"/>
+    <col min="263" max="263" width="6.44140625" style="1" customWidth="1"/>
+    <col min="264" max="266" width="5" style="1" customWidth="1"/>
+    <col min="267" max="267" width="12.77734375" style="1" customWidth="1"/>
+    <col min="268" max="268" width="3.33203125" style="1" customWidth="1"/>
+    <col min="269" max="269" width="6.33203125" style="1" customWidth="1"/>
+    <col min="270" max="272" width="5.44140625" style="1" customWidth="1"/>
+    <col min="273" max="273" width="5.88671875" style="1" customWidth="1"/>
+    <col min="274" max="274" width="8.33203125" style="1" customWidth="1"/>
+    <col min="275" max="275" width="5.88671875" style="1" customWidth="1"/>
+    <col min="276" max="278" width="5.44140625" style="1" customWidth="1"/>
+    <col min="279" max="279" width="5.77734375" style="1" customWidth="1"/>
+    <col min="280" max="282" width="6.33203125" style="1" customWidth="1"/>
+    <col min="283" max="288" width="5.44140625" style="1" customWidth="1"/>
+    <col min="289" max="289" width="6.21875" style="1" customWidth="1"/>
+    <col min="290" max="290" width="13" style="1" customWidth="1"/>
+    <col min="291" max="291" width="3.44140625" style="1" customWidth="1"/>
+    <col min="292" max="292" width="13" style="1" customWidth="1"/>
+    <col min="293" max="516" width="8.88671875" style="1"/>
+    <col min="517" max="517" width="3.5546875" style="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" customWidth="1"/>
+    <col min="519" max="519" width="6.44140625" style="1" customWidth="1"/>
+    <col min="520" max="522" width="5" style="1" customWidth="1"/>
+    <col min="523" max="523" width="12.77734375" style="1" customWidth="1"/>
+    <col min="524" max="524" width="3.33203125" style="1" customWidth="1"/>
+    <col min="525" max="525" width="6.33203125" style="1" customWidth="1"/>
+    <col min="526" max="528" width="5.44140625" style="1" customWidth="1"/>
+    <col min="529" max="529" width="5.88671875" style="1" customWidth="1"/>
+    <col min="530" max="530" width="8.33203125" style="1" customWidth="1"/>
+    <col min="531" max="531" width="5.88671875" style="1" customWidth="1"/>
+    <col min="532" max="534" width="5.44140625" style="1" customWidth="1"/>
+    <col min="535" max="535" width="5.77734375" style="1" customWidth="1"/>
+    <col min="536" max="538" width="6.33203125" style="1" customWidth="1"/>
+    <col min="539" max="544" width="5.44140625" style="1" customWidth="1"/>
+    <col min="545" max="545" width="6.21875" style="1" customWidth="1"/>
+    <col min="546" max="546" width="13" style="1" customWidth="1"/>
+    <col min="547" max="547" width="3.44140625" style="1" customWidth="1"/>
+    <col min="548" max="548" width="13" style="1" customWidth="1"/>
+    <col min="549" max="772" width="8.88671875" style="1"/>
+    <col min="773" max="773" width="3.5546875" style="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" customWidth="1"/>
+    <col min="775" max="775" width="6.44140625" style="1" customWidth="1"/>
+    <col min="776" max="778" width="5" style="1" customWidth="1"/>
+    <col min="779" max="779" width="12.77734375" style="1" customWidth="1"/>
+    <col min="780" max="780" width="3.33203125" style="1" customWidth="1"/>
+    <col min="781" max="781" width="6.33203125" style="1" customWidth="1"/>
+    <col min="782" max="784" width="5.44140625" style="1" customWidth="1"/>
+    <col min="785" max="785" width="5.88671875" style="1" customWidth="1"/>
+    <col min="786" max="786" width="8.33203125" style="1" customWidth="1"/>
+    <col min="787" max="787" width="5.88671875" style="1" customWidth="1"/>
+    <col min="788" max="790" width="5.44140625" style="1" customWidth="1"/>
+    <col min="791" max="791" width="5.77734375" style="1" customWidth="1"/>
+    <col min="792" max="794" width="6.33203125" style="1" customWidth="1"/>
+    <col min="795" max="800" width="5.44140625" style="1" customWidth="1"/>
+    <col min="801" max="801" width="6.21875" style="1" customWidth="1"/>
+    <col min="802" max="802" width="13" style="1" customWidth="1"/>
+    <col min="803" max="803" width="3.44140625" style="1" customWidth="1"/>
+    <col min="804" max="804" width="13" style="1" customWidth="1"/>
+    <col min="805" max="1028" width="8.88671875" style="1"/>
+    <col min="1029" max="1029" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1032" max="1034" width="5" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1036" max="1036" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1038" max="1040" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1041" max="1041" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1043" max="1043" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1044" max="1046" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1047" max="1047" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1048" max="1050" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1051" max="1056" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1057" max="1057" width="6.21875" style="1" customWidth="1"/>
+    <col min="1058" max="1058" width="13" style="1" customWidth="1"/>
+    <col min="1059" max="1059" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1060" max="1060" width="13" style="1" customWidth="1"/>
+    <col min="1061" max="1284" width="8.88671875" style="1"/>
+    <col min="1285" max="1285" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1288" max="1290" width="5" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1292" max="1292" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1294" max="1296" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1297" max="1297" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1299" max="1299" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1300" max="1302" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1303" max="1303" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1304" max="1306" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1307" max="1312" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1313" max="1313" width="6.21875" style="1" customWidth="1"/>
+    <col min="1314" max="1314" width="13" style="1" customWidth="1"/>
+    <col min="1315" max="1315" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1316" max="1316" width="13" style="1" customWidth="1"/>
+    <col min="1317" max="1540" width="8.88671875" style="1"/>
+    <col min="1541" max="1541" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1544" max="1546" width="5" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1548" max="1548" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1550" max="1552" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1553" max="1553" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1555" max="1555" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1556" max="1558" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1559" max="1559" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1560" max="1562" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1563" max="1568" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1569" max="1569" width="6.21875" style="1" customWidth="1"/>
+    <col min="1570" max="1570" width="13" style="1" customWidth="1"/>
+    <col min="1571" max="1571" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1572" max="1572" width="13" style="1" customWidth="1"/>
+    <col min="1573" max="1796" width="8.88671875" style="1"/>
+    <col min="1797" max="1797" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1800" max="1802" width="5" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1804" max="1804" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1806" max="1808" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1809" max="1809" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1811" max="1811" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1812" max="1814" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1815" max="1815" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1816" max="1818" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1819" max="1824" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1825" max="1825" width="6.21875" style="1" customWidth="1"/>
+    <col min="1826" max="1826" width="13" style="1" customWidth="1"/>
+    <col min="1827" max="1827" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1828" max="1828" width="13" style="1" customWidth="1"/>
+    <col min="1829" max="2052" width="8.88671875" style="1"/>
+    <col min="2053" max="2053" width="3.5546875" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2056" max="2058" width="5" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2060" max="2060" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2062" max="2064" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2065" max="2065" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2067" max="2067" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2068" max="2070" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2071" max="2071" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2072" max="2074" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2075" max="2080" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2081" max="2081" width="6.21875" style="1" customWidth="1"/>
+    <col min="2082" max="2082" width="13" style="1" customWidth="1"/>
+    <col min="2083" max="2083" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2084" max="2084" width="13" style="1" customWidth="1"/>
+    <col min="2085" max="2308" width="8.88671875" style="1"/>
+    <col min="2309" max="2309" width="3.5546875" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2312" max="2314" width="5" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2316" max="2316" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2318" max="2320" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2321" max="2321" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2323" max="2323" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2324" max="2326" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2327" max="2327" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2328" max="2330" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2331" max="2336" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2337" max="2337" width="6.21875" style="1" customWidth="1"/>
+    <col min="2338" max="2338" width="13" style="1" customWidth="1"/>
+    <col min="2339" max="2339" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2340" max="2340" width="13" style="1" customWidth="1"/>
+    <col min="2341" max="2564" width="8.88671875" style="1"/>
+    <col min="2565" max="2565" width="3.5546875" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2568" max="2570" width="5" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2572" max="2572" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2574" max="2576" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2577" max="2577" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2579" max="2579" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2580" max="2582" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2583" max="2583" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2584" max="2586" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2587" max="2592" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2593" max="2593" width="6.21875" style="1" customWidth="1"/>
+    <col min="2594" max="2594" width="13" style="1" customWidth="1"/>
+    <col min="2595" max="2595" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2596" max="2596" width="13" style="1" customWidth="1"/>
+    <col min="2597" max="2820" width="8.88671875" style="1"/>
+    <col min="2821" max="2821" width="3.5546875" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2824" max="2826" width="5" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2828" max="2828" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2830" max="2832" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2833" max="2833" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2835" max="2835" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2836" max="2838" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2839" max="2839" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2840" max="2842" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2843" max="2848" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2849" max="2849" width="6.21875" style="1" customWidth="1"/>
+    <col min="2850" max="2850" width="13" style="1" customWidth="1"/>
+    <col min="2851" max="2851" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2852" max="2852" width="13" style="1" customWidth="1"/>
+    <col min="2853" max="3076" width="8.88671875" style="1"/>
+    <col min="3077" max="3077" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3080" max="3082" width="5" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3084" max="3084" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3086" max="3088" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3089" max="3089" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3091" max="3091" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3092" max="3094" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3095" max="3095" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3096" max="3098" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3099" max="3104" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3105" max="3105" width="6.21875" style="1" customWidth="1"/>
+    <col min="3106" max="3106" width="13" style="1" customWidth="1"/>
+    <col min="3107" max="3107" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3108" max="3108" width="13" style="1" customWidth="1"/>
+    <col min="3109" max="3332" width="8.88671875" style="1"/>
+    <col min="3333" max="3333" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3336" max="3338" width="5" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3340" max="3340" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3342" max="3344" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3345" max="3345" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3347" max="3347" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3348" max="3350" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3351" max="3351" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3352" max="3354" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3355" max="3360" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3361" max="3361" width="6.21875" style="1" customWidth="1"/>
+    <col min="3362" max="3362" width="13" style="1" customWidth="1"/>
+    <col min="3363" max="3363" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3364" max="3364" width="13" style="1" customWidth="1"/>
+    <col min="3365" max="3588" width="8.88671875" style="1"/>
+    <col min="3589" max="3589" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3592" max="3594" width="5" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3596" max="3596" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3598" max="3600" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3601" max="3601" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3603" max="3603" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3604" max="3606" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3607" max="3607" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3608" max="3610" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3611" max="3616" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3617" max="3617" width="6.21875" style="1" customWidth="1"/>
+    <col min="3618" max="3618" width="13" style="1" customWidth="1"/>
+    <col min="3619" max="3619" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3620" max="3620" width="13" style="1" customWidth="1"/>
+    <col min="3621" max="3844" width="8.88671875" style="1"/>
+    <col min="3845" max="3845" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3848" max="3850" width="5" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3852" max="3852" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3854" max="3856" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3857" max="3857" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3859" max="3859" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3860" max="3862" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3863" max="3863" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3864" max="3866" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3867" max="3872" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3873" max="3873" width="6.21875" style="1" customWidth="1"/>
+    <col min="3874" max="3874" width="13" style="1" customWidth="1"/>
+    <col min="3875" max="3875" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3876" max="3876" width="13" style="1" customWidth="1"/>
+    <col min="3877" max="4100" width="8.88671875" style="1"/>
+    <col min="4101" max="4101" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4104" max="4106" width="5" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4108" max="4108" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4110" max="4112" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4113" max="4113" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4115" max="4115" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4116" max="4118" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4119" max="4119" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4120" max="4122" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4123" max="4128" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4129" max="4129" width="6.21875" style="1" customWidth="1"/>
+    <col min="4130" max="4130" width="13" style="1" customWidth="1"/>
+    <col min="4131" max="4131" width="3.44140625" style="1" customWidth="1"/>
+    <col min="4132" max="4132" width="13" style="1" customWidth="1"/>
+    <col min="4133" max="4356" width="8.88671875" style="1"/>
+    <col min="4357" max="4357" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4360" max="4362" width="5" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4364" max="4364" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4366" max="4368" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4369" max="4369" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4371" max="4371" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4372" max="4374" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4375" max="4375" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4376" max="4378" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4379" max="4384" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4385" max="4385" width="6.21875" style="1" customWidth="1"/>
+    <col min="4386" max="4386" width="13" style="1" customWidth="1"/>
+    <col min="4387" max="4387" width="3.44140625" style="1" customWidth="1"/>
+    <col min="4388" max="4388" width="13" style="1" customWidth="1"/>
+    <col min="4389" max="4612" width="8.88671875" style="1"/>
+    <col min="4613" max="4613" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4616" max="4618" width="5" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4620" max="4620" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4622" max="4624" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4625" max="4625" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4627" max="4627" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4628" max="4630" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4631" max="4631" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4632" max="4634" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4635" max="4640" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4641" max="4641" width="6.21875" style="1" customWidth="1"/>
+    <col min="4642" max="4642" width="13" style="1" customWidth="1"/>
+    <col min="4643" max="4643" width="3.44140625" style="1" customWidth="1"/>
+    <col min="4644" max="4644" width="13" style="1" customWidth="1"/>
+    <col min="4645" max="4868" width="8.88671875" style="1"/>
+    <col min="4869" max="4869" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4872" max="4874" width="5" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4876" max="4876" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4878" max="4880" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4881" max="4881" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4883" max="4883" width="5.88671875" style="1" customWidth="1"/>
+    <col min="4884" max="4886" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4887" max="4887" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4888" max="4890" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4891" max="4896" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4897" max="4897" width="6.21875" style="1" customWidth="1"/>
+    <col min="4898" max="4898" width="13" style="1" customWidth="1"/>
+    <col min="4899" max="4899" width="3.44140625" style="1" customWidth="1"/>
+    <col min="4900" max="4900" width="13" style="1" customWidth="1"/>
+    <col min="4901" max="5124" width="8.88671875" style="1"/>
+    <col min="5125" max="5125" width="3.5546875" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5128" max="5130" width="5" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5132" max="5132" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5134" max="5136" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5137" max="5137" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5139" max="5139" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5140" max="5142" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5143" max="5143" width="5.77734375" style="1" customWidth="1"/>
+    <col min="5144" max="5146" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5147" max="5152" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5153" max="5153" width="6.21875" style="1" customWidth="1"/>
+    <col min="5154" max="5154" width="13" style="1" customWidth="1"/>
+    <col min="5155" max="5155" width="3.44140625" style="1" customWidth="1"/>
+    <col min="5156" max="5156" width="13" style="1" customWidth="1"/>
+    <col min="5157" max="5380" width="8.88671875" style="1"/>
+    <col min="5381" max="5381" width="3.5546875" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5384" max="5386" width="5" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5388" max="5388" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5390" max="5392" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5393" max="5393" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5395" max="5395" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5396" max="5398" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5399" max="5399" width="5.77734375" style="1" customWidth="1"/>
+    <col min="5400" max="5402" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5403" max="5408" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5409" max="5409" width="6.21875" style="1" customWidth="1"/>
+    <col min="5410" max="5410" width="13" style="1" customWidth="1"/>
+    <col min="5411" max="5411" width="3.44140625" style="1" customWidth="1"/>
+    <col min="5412" max="5412" width="13" style="1" customWidth="1"/>
+    <col min="5413" max="5636" width="8.88671875" style="1"/>
+    <col min="5637" max="5637" width="3.5546875" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5640" max="5642" width="5" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5644" max="5644" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5646" max="5648" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5649" max="5649" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5651" max="5651" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5652" max="5654" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5655" max="5655" width="5.77734375" style="1" customWidth="1"/>
+    <col min="5656" max="5658" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5659" max="5664" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5665" max="5665" width="6.21875" style="1" customWidth="1"/>
+    <col min="5666" max="5666" width="13" style="1" customWidth="1"/>
+    <col min="5667" max="5667" width="3.44140625" style="1" customWidth="1"/>
+    <col min="5668" max="5668" width="13" style="1" customWidth="1"/>
+    <col min="5669" max="5892" width="8.88671875" style="1"/>
+    <col min="5893" max="5893" width="3.5546875" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5896" max="5898" width="5" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5900" max="5900" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5902" max="5904" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5905" max="5905" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5907" max="5907" width="5.88671875" style="1" customWidth="1"/>
+    <col min="5908" max="5910" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5911" max="5911" width="5.77734375" style="1" customWidth="1"/>
+    <col min="5912" max="5914" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5915" max="5920" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5921" max="5921" width="6.21875" style="1" customWidth="1"/>
+    <col min="5922" max="5922" width="13" style="1" customWidth="1"/>
+    <col min="5923" max="5923" width="3.44140625" style="1" customWidth="1"/>
+    <col min="5924" max="5924" width="13" style="1" customWidth="1"/>
+    <col min="5925" max="6148" width="8.88671875" style="1"/>
+    <col min="6149" max="6149" width="3.5546875" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6152" max="6154" width="5" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6156" max="6156" width="3.33203125" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6158" max="6160" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6161" max="6161" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6163" max="6163" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6164" max="6166" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6167" max="6167" width="5.77734375" style="1" customWidth="1"/>
+    <col min="6168" max="6170" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6171" max="6176" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6177" max="6177" width="6.21875" style="1" customWidth="1"/>
+    <col min="6178" max="6178" width="13" style="1" customWidth="1"/>
+    <col min="6179" max="6179" width="3.44140625" style="1" customWidth="1"/>
+    <col min="6180" max="6180" width="13" style="1" customWidth="1"/>
+    <col min="6181" max="6404" width="8.88671875" style="1"/>
+    <col min="6405" max="6405" width="3.5546875" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6408" max="6410" width="5" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6412" max="6412" width="3.33203125" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6414" max="6416" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6417" max="6417" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6419" max="6419" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6420" max="6422" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6423" max="6423" width="5.77734375" style="1" customWidth="1"/>
+    <col min="6424" max="6426" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6427" max="6432" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6433" max="6433" width="6.21875" style="1" customWidth="1"/>
+    <col min="6434" max="6434" width="13" style="1" customWidth="1"/>
+    <col min="6435" max="6435" width="3.44140625" style="1" customWidth="1"/>
+    <col min="6436" max="6436" width="13" style="1" customWidth="1"/>
+    <col min="6437" max="6660" width="8.88671875" style="1"/>
+    <col min="6661" max="6661" width="3.5546875" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6664" max="6666" width="5" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6668" max="6668" width="3.33203125" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6670" max="6672" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6673" max="6673" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6675" max="6675" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6676" max="6678" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6679" max="6679" width="5.77734375" style="1" customWidth="1"/>
+    <col min="6680" max="6682" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6683" max="6688" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6689" max="6689" width="6.21875" style="1" customWidth="1"/>
+    <col min="6690" max="6690" width="13" style="1" customWidth="1"/>
+    <col min="6691" max="6691" width="3.44140625" style="1" customWidth="1"/>
+    <col min="6692" max="6692" width="13" style="1" customWidth="1"/>
+    <col min="6693" max="6916" width="8.88671875" style="1"/>
+    <col min="6917" max="6917" width="3.5546875" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6920" max="6922" width="5" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6924" max="6924" width="3.33203125" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6926" max="6928" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6929" max="6929" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6931" max="6931" width="5.88671875" style="1" customWidth="1"/>
+    <col min="6932" max="6934" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6935" max="6935" width="5.77734375" style="1" customWidth="1"/>
+    <col min="6936" max="6938" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6939" max="6944" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6945" max="6945" width="6.21875" style="1" customWidth="1"/>
+    <col min="6946" max="6946" width="13" style="1" customWidth="1"/>
+    <col min="6947" max="6947" width="3.44140625" style="1" customWidth="1"/>
+    <col min="6948" max="6948" width="13" style="1" customWidth="1"/>
+    <col min="6949" max="7172" width="8.88671875" style="1"/>
+    <col min="7173" max="7173" width="3.5546875" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7176" max="7178" width="5" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7180" max="7180" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7182" max="7184" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7185" max="7185" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7187" max="7187" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7188" max="7190" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7191" max="7191" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7192" max="7194" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7195" max="7200" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7201" max="7201" width="6.21875" style="1" customWidth="1"/>
+    <col min="7202" max="7202" width="13" style="1" customWidth="1"/>
+    <col min="7203" max="7203" width="3.44140625" style="1" customWidth="1"/>
+    <col min="7204" max="7204" width="13" style="1" customWidth="1"/>
+    <col min="7205" max="7428" width="8.88671875" style="1"/>
+    <col min="7429" max="7429" width="3.5546875" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7432" max="7434" width="5" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7436" max="7436" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7438" max="7440" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7441" max="7441" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7443" max="7443" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7444" max="7446" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7447" max="7447" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7448" max="7450" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7451" max="7456" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7457" max="7457" width="6.21875" style="1" customWidth="1"/>
+    <col min="7458" max="7458" width="13" style="1" customWidth="1"/>
+    <col min="7459" max="7459" width="3.44140625" style="1" customWidth="1"/>
+    <col min="7460" max="7460" width="13" style="1" customWidth="1"/>
+    <col min="7461" max="7684" width="8.88671875" style="1"/>
+    <col min="7685" max="7685" width="3.5546875" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7688" max="7690" width="5" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7692" max="7692" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7694" max="7696" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7697" max="7697" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7699" max="7699" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7700" max="7702" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7703" max="7703" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7704" max="7706" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7707" max="7712" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7713" max="7713" width="6.21875" style="1" customWidth="1"/>
+    <col min="7714" max="7714" width="13" style="1" customWidth="1"/>
+    <col min="7715" max="7715" width="3.44140625" style="1" customWidth="1"/>
+    <col min="7716" max="7716" width="13" style="1" customWidth="1"/>
+    <col min="7717" max="7940" width="8.88671875" style="1"/>
+    <col min="7941" max="7941" width="3.5546875" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7944" max="7946" width="5" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7948" max="7948" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7950" max="7952" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7953" max="7953" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7955" max="7955" width="5.88671875" style="1" customWidth="1"/>
+    <col min="7956" max="7958" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7959" max="7959" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7960" max="7962" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7963" max="7968" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7969" max="7969" width="6.21875" style="1" customWidth="1"/>
+    <col min="7970" max="7970" width="13" style="1" customWidth="1"/>
+    <col min="7971" max="7971" width="3.44140625" style="1" customWidth="1"/>
+    <col min="7972" max="7972" width="13" style="1" customWidth="1"/>
+    <col min="7973" max="8196" width="8.88671875" style="1"/>
+    <col min="8197" max="8197" width="3.5546875" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8200" max="8202" width="5" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8204" max="8204" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8206" max="8208" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8209" max="8209" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8211" max="8211" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8212" max="8214" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8215" max="8215" width="5.77734375" style="1" customWidth="1"/>
+    <col min="8216" max="8218" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8219" max="8224" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8225" max="8225" width="6.21875" style="1" customWidth="1"/>
+    <col min="8226" max="8226" width="13" style="1" customWidth="1"/>
+    <col min="8227" max="8227" width="3.44140625" style="1" customWidth="1"/>
+    <col min="8228" max="8228" width="13" style="1" customWidth="1"/>
+    <col min="8229" max="8452" width="8.88671875" style="1"/>
+    <col min="8453" max="8453" width="3.5546875" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8456" max="8458" width="5" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8460" max="8460" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8462" max="8464" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8465" max="8465" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8467" max="8467" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8468" max="8470" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8471" max="8471" width="5.77734375" style="1" customWidth="1"/>
+    <col min="8472" max="8474" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8475" max="8480" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8481" max="8481" width="6.21875" style="1" customWidth="1"/>
+    <col min="8482" max="8482" width="13" style="1" customWidth="1"/>
+    <col min="8483" max="8483" width="3.44140625" style="1" customWidth="1"/>
+    <col min="8484" max="8484" width="13" style="1" customWidth="1"/>
+    <col min="8485" max="8708" width="8.88671875" style="1"/>
+    <col min="8709" max="8709" width="3.5546875" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8712" max="8714" width="5" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8716" max="8716" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8718" max="8720" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8721" max="8721" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8723" max="8723" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8724" max="8726" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8727" max="8727" width="5.77734375" style="1" customWidth="1"/>
+    <col min="8728" max="8730" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8731" max="8736" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8737" max="8737" width="6.21875" style="1" customWidth="1"/>
+    <col min="8738" max="8738" width="13" style="1" customWidth="1"/>
+    <col min="8739" max="8739" width="3.44140625" style="1" customWidth="1"/>
+    <col min="8740" max="8740" width="13" style="1" customWidth="1"/>
+    <col min="8741" max="8964" width="8.88671875" style="1"/>
+    <col min="8965" max="8965" width="3.5546875" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8968" max="8970" width="5" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8972" max="8972" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8974" max="8976" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8977" max="8977" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8979" max="8979" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8980" max="8982" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8983" max="8983" width="5.77734375" style="1" customWidth="1"/>
+    <col min="8984" max="8986" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8987" max="8992" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8993" max="8993" width="6.21875" style="1" customWidth="1"/>
+    <col min="8994" max="8994" width="13" style="1" customWidth="1"/>
+    <col min="8995" max="8995" width="3.44140625" style="1" customWidth="1"/>
+    <col min="8996" max="8996" width="13" style="1" customWidth="1"/>
+    <col min="8997" max="9220" width="8.88671875" style="1"/>
+    <col min="9221" max="9221" width="3.5546875" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9224" max="9226" width="5" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9228" max="9228" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9230" max="9232" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9233" max="9233" width="5.88671875" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9235" max="9235" width="5.88671875" style="1" customWidth="1"/>
+    <col min="9236" max="9238" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9239" max="9239" width="5.77734375" style="1" customWidth="1"/>
+    <col min="9240" max="9242" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9243" max="9248" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9249" max="9249" width="6.21875" style="1" customWidth="1"/>
+    <col min="9250" max="9250" width="13" style="1" customWidth="1"/>
+    <col min="9251" max="9251" width="3.44140625" style="1" customWidth="1"/>
+    <col min="9252" max="9252" width="13" style="1" customWidth="1"/>
+    <col min="9253" max="9476" width="8.88671875" style="1"/>
+    <col min="9477" max="9477" width="3.5546875" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9480" max="9482" width="5" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9484" max="9484" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9486" max="9488" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9489" max="9489" width="5.88671875" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9491" max="9491" width="5.88671875" style="1" customWidth="1"/>
+    <col min="9492" max="9494" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9495" max="9495" width="5.77734375" style="1" customWidth="1"/>
+    <col min="9496" max="9498" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9499" max="9504" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9505" max="9505" width="6.21875" style="1" customWidth="1"/>
+    <col min="9506" max="9506" width="13" style="1" customWidth="1"/>
+    <col min="9507" max="9507" width="3.44140625" style="1" customWidth="1"/>
+    <col min="9508" max="9508" width="13" style="1" customWidth="1"/>
+    <col min="9509" max="9732" width="8.88671875" style="1"/>
+    <col min="9733" max="9733" width="3.5546875" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9736" max="9738" width="5" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9740" max="9740" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9742" max="9744" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9745" max="9745" width="5.88671875" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9747" max="9747" width="5.88671875" style="1" customWidth="1"/>
+    <col min="9748" max="9750" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9751" max="9751" width="5.77734375" style="1" customWidth="1"/>
+    <col min="9752" max="9754" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9755" max="9760" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9761" max="9761" width="6.21875" style="1" customWidth="1"/>
+    <col min="9762" max="9762" width="13" style="1" customWidth="1"/>
+    <col min="9763" max="9763" width="3.44140625" style="1" customWidth="1"/>
+    <col min="9764" max="9764" width="13" style="1" customWidth="1"/>
+    <col min="9765" max="9988" width="8.88671875" style="1"/>
+    <col min="9989" max="9989" width="3.5546875" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9992" max="9994" width="5" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9996" max="9996" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9998" max="10000" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10001" max="10001" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10003" max="10003" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10004" max="10006" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10007" max="10007" width="5.77734375" style="1" customWidth="1"/>
+    <col min="10008" max="10010" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10011" max="10016" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10017" max="10017" width="6.21875" style="1" customWidth="1"/>
+    <col min="10018" max="10018" width="13" style="1" customWidth="1"/>
+    <col min="10019" max="10019" width="3.44140625" style="1" customWidth="1"/>
+    <col min="10020" max="10020" width="13" style="1" customWidth="1"/>
+    <col min="10021" max="10244" width="8.88671875" style="1"/>
+    <col min="10245" max="10245" width="3.5546875" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10248" max="10250" width="5" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10252" max="10252" width="3.33203125" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10254" max="10256" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10257" max="10257" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10259" max="10259" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10260" max="10262" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10263" max="10263" width="5.77734375" style="1" customWidth="1"/>
+    <col min="10264" max="10266" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10267" max="10272" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10273" max="10273" width="6.21875" style="1" customWidth="1"/>
+    <col min="10274" max="10274" width="13" style="1" customWidth="1"/>
+    <col min="10275" max="10275" width="3.44140625" style="1" customWidth="1"/>
+    <col min="10276" max="10276" width="13" style="1" customWidth="1"/>
+    <col min="10277" max="10500" width="8.88671875" style="1"/>
+    <col min="10501" max="10501" width="3.5546875" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10504" max="10506" width="5" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10508" max="10508" width="3.33203125" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10510" max="10512" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10513" max="10513" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10515" max="10515" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10516" max="10518" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10519" max="10519" width="5.77734375" style="1" customWidth="1"/>
+    <col min="10520" max="10522" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10523" max="10528" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10529" max="10529" width="6.21875" style="1" customWidth="1"/>
+    <col min="10530" max="10530" width="13" style="1" customWidth="1"/>
+    <col min="10531" max="10531" width="3.44140625" style="1" customWidth="1"/>
+    <col min="10532" max="10532" width="13" style="1" customWidth="1"/>
+    <col min="10533" max="10756" width="8.88671875" style="1"/>
+    <col min="10757" max="10757" width="3.5546875" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10760" max="10762" width="5" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10764" max="10764" width="3.33203125" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10766" max="10768" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10769" max="10769" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10771" max="10771" width="5.88671875" style="1" customWidth="1"/>
+    <col min="10772" max="10774" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10775" max="10775" width="5.77734375" style="1" customWidth="1"/>
+    <col min="10776" max="10778" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10779" max="10784" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10785" max="10785" width="6.21875" style="1" customWidth="1"/>
+    <col min="10786" max="10786" width="13" style="1" customWidth="1"/>
+    <col min="10787" max="10787" width="3.44140625" style="1" customWidth="1"/>
+    <col min="10788" max="10788" width="13" style="1" customWidth="1"/>
+    <col min="10789" max="11012" width="8.88671875" style="1"/>
+    <col min="11013" max="11013" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11016" max="11018" width="5" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11020" max="11020" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11022" max="11024" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11025" max="11025" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11027" max="11027" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11028" max="11030" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11031" max="11031" width="5.77734375" style="1" customWidth="1"/>
+    <col min="11032" max="11034" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11035" max="11040" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11041" max="11041" width="6.21875" style="1" customWidth="1"/>
+    <col min="11042" max="11042" width="13" style="1" customWidth="1"/>
+    <col min="11043" max="11043" width="3.44140625" style="1" customWidth="1"/>
+    <col min="11044" max="11044" width="13" style="1" customWidth="1"/>
+    <col min="11045" max="11268" width="8.88671875" style="1"/>
+    <col min="11269" max="11269" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11272" max="11274" width="5" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11276" max="11276" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11278" max="11280" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11281" max="11281" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11283" max="11283" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11284" max="11286" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11287" max="11287" width="5.77734375" style="1" customWidth="1"/>
+    <col min="11288" max="11290" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11291" max="11296" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11297" max="11297" width="6.21875" style="1" customWidth="1"/>
+    <col min="11298" max="11298" width="13" style="1" customWidth="1"/>
+    <col min="11299" max="11299" width="3.44140625" style="1" customWidth="1"/>
+    <col min="11300" max="11300" width="13" style="1" customWidth="1"/>
+    <col min="11301" max="11524" width="8.88671875" style="1"/>
+    <col min="11525" max="11525" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11528" max="11530" width="5" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11532" max="11532" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11534" max="11536" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11537" max="11537" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11539" max="11539" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11540" max="11542" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11543" max="11543" width="5.77734375" style="1" customWidth="1"/>
+    <col min="11544" max="11546" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11547" max="11552" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11553" max="11553" width="6.21875" style="1" customWidth="1"/>
+    <col min="11554" max="11554" width="13" style="1" customWidth="1"/>
+    <col min="11555" max="11555" width="3.44140625" style="1" customWidth="1"/>
+    <col min="11556" max="11556" width="13" style="1" customWidth="1"/>
+    <col min="11557" max="11780" width="8.88671875" style="1"/>
+    <col min="11781" max="11781" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11784" max="11786" width="5" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11788" max="11788" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11790" max="11792" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11793" max="11793" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11795" max="11795" width="5.88671875" style="1" customWidth="1"/>
+    <col min="11796" max="11798" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11799" max="11799" width="5.77734375" style="1" customWidth="1"/>
+    <col min="11800" max="11802" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11803" max="11808" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11809" max="11809" width="6.21875" style="1" customWidth="1"/>
+    <col min="11810" max="11810" width="13" style="1" customWidth="1"/>
+    <col min="11811" max="11811" width="3.44140625" style="1" customWidth="1"/>
+    <col min="11812" max="11812" width="13" style="1" customWidth="1"/>
+    <col min="11813" max="12036" width="8.88671875" style="1"/>
+    <col min="12037" max="12037" width="3.5546875" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12040" max="12042" width="5" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12044" max="12044" width="3.33203125" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12046" max="12048" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12049" max="12049" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12051" max="12051" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12052" max="12054" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12055" max="12055" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12056" max="12058" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12059" max="12064" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12065" max="12065" width="6.21875" style="1" customWidth="1"/>
+    <col min="12066" max="12066" width="13" style="1" customWidth="1"/>
+    <col min="12067" max="12067" width="3.44140625" style="1" customWidth="1"/>
+    <col min="12068" max="12068" width="13" style="1" customWidth="1"/>
+    <col min="12069" max="12292" width="8.88671875" style="1"/>
+    <col min="12293" max="12293" width="3.5546875" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12296" max="12298" width="5" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12300" max="12300" width="3.33203125" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12302" max="12304" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12305" max="12305" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12307" max="12307" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12308" max="12310" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12311" max="12311" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12312" max="12314" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12315" max="12320" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12321" max="12321" width="6.21875" style="1" customWidth="1"/>
+    <col min="12322" max="12322" width="13" style="1" customWidth="1"/>
+    <col min="12323" max="12323" width="3.44140625" style="1" customWidth="1"/>
+    <col min="12324" max="12324" width="13" style="1" customWidth="1"/>
+    <col min="12325" max="12548" width="8.88671875" style="1"/>
+    <col min="12549" max="12549" width="3.5546875" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12552" max="12554" width="5" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12556" max="12556" width="3.33203125" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12558" max="12560" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12561" max="12561" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12563" max="12563" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12564" max="12566" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12567" max="12567" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12568" max="12570" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12571" max="12576" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12577" max="12577" width="6.21875" style="1" customWidth="1"/>
+    <col min="12578" max="12578" width="13" style="1" customWidth="1"/>
+    <col min="12579" max="12579" width="3.44140625" style="1" customWidth="1"/>
+    <col min="12580" max="12580" width="13" style="1" customWidth="1"/>
+    <col min="12581" max="12804" width="8.88671875" style="1"/>
+    <col min="12805" max="12805" width="3.5546875" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12808" max="12810" width="5" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12812" max="12812" width="3.33203125" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12814" max="12816" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12817" max="12817" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12819" max="12819" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12820" max="12822" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12823" max="12823" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12824" max="12826" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12827" max="12832" width="5.44140625" style="1" customWidth="1"/>
+    <col min="12833" max="12833" width="6.21875" style="1" customWidth="1"/>
+    <col min="12834" max="12834" width="13" style="1" customWidth="1"/>
+    <col min="12835" max="12835" width="3.44140625" style="1" customWidth="1"/>
+    <col min="12836" max="12836" width="13" style="1" customWidth="1"/>
+    <col min="12837" max="13060" width="8.88671875" style="1"/>
+    <col min="13061" max="13061" width="3.5546875" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13064" max="13066" width="5" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13068" max="13068" width="3.33203125" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13070" max="13072" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13073" max="13073" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13075" max="13075" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13076" max="13078" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13079" max="13079" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13080" max="13082" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13083" max="13088" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13089" max="13089" width="6.21875" style="1" customWidth="1"/>
+    <col min="13090" max="13090" width="13" style="1" customWidth="1"/>
+    <col min="13091" max="13091" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13092" max="13092" width="13" style="1" customWidth="1"/>
+    <col min="13093" max="13316" width="8.88671875" style="1"/>
+    <col min="13317" max="13317" width="3.5546875" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13320" max="13322" width="5" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13324" max="13324" width="3.33203125" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13326" max="13328" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13329" max="13329" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13331" max="13331" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13332" max="13334" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13335" max="13335" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13336" max="13338" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13339" max="13344" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13345" max="13345" width="6.21875" style="1" customWidth="1"/>
+    <col min="13346" max="13346" width="13" style="1" customWidth="1"/>
+    <col min="13347" max="13347" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13348" max="13348" width="13" style="1" customWidth="1"/>
+    <col min="13349" max="13572" width="8.88671875" style="1"/>
+    <col min="13573" max="13573" width="3.5546875" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13576" max="13578" width="5" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13580" max="13580" width="3.33203125" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13582" max="13584" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13585" max="13585" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13587" max="13587" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13588" max="13590" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13591" max="13591" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13592" max="13594" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13595" max="13600" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13601" max="13601" width="6.21875" style="1" customWidth="1"/>
+    <col min="13602" max="13602" width="13" style="1" customWidth="1"/>
+    <col min="13603" max="13603" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13604" max="13604" width="13" style="1" customWidth="1"/>
+    <col min="13605" max="13828" width="8.88671875" style="1"/>
+    <col min="13829" max="13829" width="3.5546875" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13832" max="13834" width="5" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13836" max="13836" width="3.33203125" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13838" max="13840" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13841" max="13841" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13843" max="13843" width="5.88671875" style="1" customWidth="1"/>
+    <col min="13844" max="13846" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13847" max="13847" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13848" max="13850" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13851" max="13856" width="5.44140625" style="1" customWidth="1"/>
+    <col min="13857" max="13857" width="6.21875" style="1" customWidth="1"/>
+    <col min="13858" max="13858" width="13" style="1" customWidth="1"/>
+    <col min="13859" max="13859" width="3.44140625" style="1" customWidth="1"/>
+    <col min="13860" max="13860" width="13" style="1" customWidth="1"/>
+    <col min="13861" max="14084" width="8.88671875" style="1"/>
+    <col min="14085" max="14085" width="3.5546875" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14088" max="14090" width="5" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14092" max="14092" width="3.33203125" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14094" max="14096" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14097" max="14097" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14099" max="14099" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14100" max="14102" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14103" max="14103" width="5.77734375" style="1" customWidth="1"/>
+    <col min="14104" max="14106" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14107" max="14112" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14113" max="14113" width="6.21875" style="1" customWidth="1"/>
+    <col min="14114" max="14114" width="13" style="1" customWidth="1"/>
+    <col min="14115" max="14115" width="3.44140625" style="1" customWidth="1"/>
+    <col min="14116" max="14116" width="13" style="1" customWidth="1"/>
+    <col min="14117" max="14340" width="8.88671875" style="1"/>
+    <col min="14341" max="14341" width="3.5546875" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14344" max="14346" width="5" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14348" max="14348" width="3.33203125" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14350" max="14352" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14353" max="14353" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14355" max="14355" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14356" max="14358" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14359" max="14359" width="5.77734375" style="1" customWidth="1"/>
+    <col min="14360" max="14362" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14363" max="14368" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14369" max="14369" width="6.21875" style="1" customWidth="1"/>
+    <col min="14370" max="14370" width="13" style="1" customWidth="1"/>
+    <col min="14371" max="14371" width="3.44140625" style="1" customWidth="1"/>
+    <col min="14372" max="14372" width="13" style="1" customWidth="1"/>
+    <col min="14373" max="14596" width="8.88671875" style="1"/>
+    <col min="14597" max="14597" width="3.5546875" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14600" max="14602" width="5" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14604" max="14604" width="3.33203125" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14606" max="14608" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14609" max="14609" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14611" max="14611" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14612" max="14614" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14615" max="14615" width="5.77734375" style="1" customWidth="1"/>
+    <col min="14616" max="14618" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14619" max="14624" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14625" max="14625" width="6.21875" style="1" customWidth="1"/>
+    <col min="14626" max="14626" width="13" style="1" customWidth="1"/>
+    <col min="14627" max="14627" width="3.44140625" style="1" customWidth="1"/>
+    <col min="14628" max="14628" width="13" style="1" customWidth="1"/>
+    <col min="14629" max="14852" width="8.88671875" style="1"/>
+    <col min="14853" max="14853" width="3.5546875" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14856" max="14858" width="5" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14860" max="14860" width="3.33203125" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14862" max="14864" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14865" max="14865" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14867" max="14867" width="5.88671875" style="1" customWidth="1"/>
+    <col min="14868" max="14870" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14871" max="14871" width="5.77734375" style="1" customWidth="1"/>
+    <col min="14872" max="14874" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14875" max="14880" width="5.44140625" style="1" customWidth="1"/>
+    <col min="14881" max="14881" width="6.21875" style="1" customWidth="1"/>
+    <col min="14882" max="14882" width="13" style="1" customWidth="1"/>
+    <col min="14883" max="14883" width="3.44140625" style="1" customWidth="1"/>
+    <col min="14884" max="14884" width="13" style="1" customWidth="1"/>
+    <col min="14885" max="15108" width="8.88671875" style="1"/>
+    <col min="15109" max="15109" width="3.5546875" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15112" max="15114" width="5" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15116" max="15116" width="3.33203125" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15118" max="15120" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15121" max="15121" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15123" max="15123" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15124" max="15126" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15127" max="15127" width="5.77734375" style="1" customWidth="1"/>
+    <col min="15128" max="15130" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15131" max="15136" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15137" max="15137" width="6.21875" style="1" customWidth="1"/>
+    <col min="15138" max="15138" width="13" style="1" customWidth="1"/>
+    <col min="15139" max="15139" width="3.44140625" style="1" customWidth="1"/>
+    <col min="15140" max="15140" width="13" style="1" customWidth="1"/>
+    <col min="15141" max="15364" width="8.88671875" style="1"/>
+    <col min="15365" max="15365" width="3.5546875" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15368" max="15370" width="5" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15372" max="15372" width="3.33203125" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15374" max="15376" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15377" max="15377" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15379" max="15379" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15380" max="15382" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15383" max="15383" width="5.77734375" style="1" customWidth="1"/>
+    <col min="15384" max="15386" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15387" max="15392" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15393" max="15393" width="6.21875" style="1" customWidth="1"/>
+    <col min="15394" max="15394" width="13" style="1" customWidth="1"/>
+    <col min="15395" max="15395" width="3.44140625" style="1" customWidth="1"/>
+    <col min="15396" max="15396" width="13" style="1" customWidth="1"/>
+    <col min="15397" max="15620" width="8.88671875" style="1"/>
+    <col min="15621" max="15621" width="3.5546875" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15624" max="15626" width="5" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15628" max="15628" width="3.33203125" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15630" max="15632" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15633" max="15633" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15635" max="15635" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15636" max="15638" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15639" max="15639" width="5.77734375" style="1" customWidth="1"/>
+    <col min="15640" max="15642" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15643" max="15648" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15649" max="15649" width="6.21875" style="1" customWidth="1"/>
+    <col min="15650" max="15650" width="13" style="1" customWidth="1"/>
+    <col min="15651" max="15651" width="3.44140625" style="1" customWidth="1"/>
+    <col min="15652" max="15652" width="13" style="1" customWidth="1"/>
+    <col min="15653" max="15876" width="8.88671875" style="1"/>
+    <col min="15877" max="15877" width="3.5546875" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15880" max="15882" width="5" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15884" max="15884" width="3.33203125" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15886" max="15888" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15889" max="15889" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15891" max="15891" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15892" max="15894" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15895" max="15895" width="5.77734375" style="1" customWidth="1"/>
+    <col min="15896" max="15898" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15899" max="15904" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15905" max="15905" width="6.21875" style="1" customWidth="1"/>
+    <col min="15906" max="15906" width="13" style="1" customWidth="1"/>
+    <col min="15907" max="15907" width="3.44140625" style="1" customWidth="1"/>
+    <col min="15908" max="15908" width="13" style="1" customWidth="1"/>
+    <col min="15909" max="16132" width="8.88671875" style="1"/>
+    <col min="16133" max="16133" width="3.5546875" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="6.44140625" style="1" customWidth="1"/>
+    <col min="16136" max="16138" width="5" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16140" max="16140" width="3.33203125" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="6.33203125" style="1" customWidth="1"/>
+    <col min="16142" max="16144" width="5.44140625" style="1" customWidth="1"/>
+    <col min="16145" max="16145" width="5.88671875" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16147" max="16147" width="5.88671875" style="1" customWidth="1"/>
+    <col min="16148" max="16150" width="5.44140625" style="1" customWidth="1"/>
+    <col min="16151" max="16151" width="5.77734375" style="1" customWidth="1"/>
+    <col min="16152" max="16154" width="6.33203125" style="1" customWidth="1"/>
+    <col min="16155" max="16160" width="5.44140625" style="1" customWidth="1"/>
+    <col min="16161" max="16161" width="6.21875" style="1" customWidth="1"/>
+    <col min="16162" max="16162" width="13" style="1" customWidth="1"/>
+    <col min="16163" max="16163" width="3.44140625" style="1" customWidth="1"/>
+    <col min="16164" max="16164" width="13" style="1" customWidth="1"/>
+    <col min="16165" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="27">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:44" ht="26.25">
+      <c r="A1" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
     </row>
-    <row r="2" spans="1:44" ht="23">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
+    <row r="2" spans="1:44" ht="26.25">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
     </row>
-    <row r="3" spans="1:44" ht="23">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
+    <row r="3" spans="1:44" ht="26.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
     </row>
-    <row r="4" spans="1:44" s="71" customFormat="1">
-      <c r="A4" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="72" t="s">
+    <row r="4" spans="1:44" s="68" customFormat="1">
+      <c r="A4" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="21.75" hidden="1" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
     </row>
     <row r="6" spans="1:44" ht="21.75" hidden="1" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
     </row>
     <row r="7" spans="1:44" ht="21.75" hidden="1" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
     </row>
-    <row r="8" spans="1:44" ht="18" thickBot="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
+    <row r="8" spans="1:44" ht="17.25" thickBot="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
     </row>
     <row r="9" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="85" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="95" t="s">
+      <c r="H9" s="102"/>
+      <c r="I9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="101" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="102"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="101" t="s">
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="101" t="s">
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="102"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="101" t="s">
+      <c r="S9" s="76"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="102"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="82" t="s">
+      <c r="V9" s="76"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="104" t="s">
+      <c r="Y9" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="104" t="s">
+      <c r="Z9" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" s="104" t="s">
+      <c r="AA9" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" s="95" t="s">
+      <c r="AB9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="95" t="s">
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="95" t="s">
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="95" t="s">
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="82" t="s">
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AP9" s="82" t="s">
+      <c r="AP9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AQ9" s="112" t="s">
+      <c r="AQ9" s="93" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="80"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="121" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="121" t="s">
+      <c r="M10" s="114"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="121" t="s">
+      <c r="P10" s="114"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="121" t="s">
+      <c r="S10" s="114"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="122"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="124" t="s">
+      <c r="V10" s="114"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="100"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="100"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="113"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="94"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="80"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="68" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="65" t="s">
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="117" t="s">
+      <c r="L11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="119" t="s">
+      <c r="M11" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="115" t="s">
+      <c r="N11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="117" t="s">
+      <c r="O11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="125" t="s">
+      <c r="P11" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="115" t="s">
+      <c r="Q11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="117" t="s">
+      <c r="R11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="125" t="s">
+      <c r="S11" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="115" t="s">
+      <c r="T11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="U11" s="126" t="s">
+      <c r="U11" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="125" t="s">
+      <c r="V11" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="W11" s="106" t="s">
+      <c r="W11" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="108" t="s">
+      <c r="X11" s="85"/>
+      <c r="Y11" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="110" t="s">
+      <c r="Z11" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="108" t="s">
+      <c r="AA11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AB11" s="117" t="s">
+      <c r="AB11" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="AC11" s="119" t="s">
+      <c r="AC11" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="AD11" s="119" t="s">
+      <c r="AD11" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="115" t="s">
+      <c r="AE11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="AF11" s="117" t="s">
+      <c r="AF11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AG11" s="119" t="s">
+      <c r="AG11" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AH11" s="115" t="s">
+      <c r="AH11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="AI11" s="117" t="s">
+      <c r="AI11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AJ11" s="119" t="s">
+      <c r="AJ11" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AK11" s="115" t="s">
+      <c r="AK11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="AL11" s="117" t="s">
+      <c r="AL11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AM11" s="119" t="s">
+      <c r="AM11" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AN11" s="115" t="s">
+      <c r="AN11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="113"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="94"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="81"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="62" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="61" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="116"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="116"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="114"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="86"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="95"/>
     </row>
-    <row r="13" spans="1:44" s="58" customFormat="1" ht="14">
-      <c r="A13" s="127"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="128"/>
-      <c r="AO13" s="128"/>
-      <c r="AP13" s="128"/>
-      <c r="AQ13" s="129"/>
+    <row r="13" spans="1:44" s="55" customFormat="1" ht="12">
+      <c r="A13" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="124"/>
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="124"/>
+      <c r="AN13" s="124"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="125"/>
     </row>
-    <row r="14" spans="1:44" s="3" customFormat="1" ht="13">
+    <row r="14" spans="1:44" s="3" customFormat="1" ht="10.5">
       <c r="A14" s="43"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55"/>
+      <c r="B14" s="42">
+        <v>3</v>
+      </c>
+      <c r="C14" s="42">
+        <v>2</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="41">
+        <v>5</v>
+      </c>
+      <c r="F14" s="40">
+        <v>126</v>
+      </c>
+      <c r="G14" s="39">
+        <v>22</v>
+      </c>
+      <c r="H14" s="39">
+        <v>23</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="54"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="32"/>
+      <c r="L14" s="35">
+        <v>32</v>
+      </c>
+      <c r="M14" s="27">
+        <v>33</v>
+      </c>
+      <c r="N14" s="32">
+        <v>34</v>
+      </c>
+      <c r="O14" s="28">
+        <v>36</v>
+      </c>
+      <c r="P14" s="27">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>38</v>
+      </c>
+      <c r="R14" s="28">
+        <v>40</v>
+      </c>
+      <c r="S14" s="27">
+        <v>41</v>
+      </c>
+      <c r="T14" s="32">
+        <v>42</v>
+      </c>
+      <c r="U14" s="28">
+        <v>28</v>
+      </c>
+      <c r="V14" s="27">
+        <v>29</v>
+      </c>
+      <c r="W14" s="32">
+        <v>30</v>
+      </c>
       <c r="X14" s="53"/>
-      <c r="Y14" s="25"/>
+      <c r="Y14" s="25">
+        <v>24</v>
+      </c>
       <c r="Z14" s="52"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
+      <c r="AA14" s="25">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="28">
+        <v>56</v>
+      </c>
+      <c r="AG14" s="27">
+        <v>57</v>
+      </c>
+      <c r="AH14" s="26">
+        <v>58</v>
+      </c>
+      <c r="AI14" s="31">
+        <v>60</v>
+      </c>
+      <c r="AJ14" s="30">
+        <v>61</v>
+      </c>
+      <c r="AK14" s="29">
+        <v>62</v>
+      </c>
+      <c r="AL14" s="28">
+        <v>63</v>
+      </c>
+      <c r="AM14" s="27">
+        <v>64</v>
+      </c>
+      <c r="AN14" s="26">
+        <v>65</v>
+      </c>
+      <c r="AO14" s="25">
+        <v>77</v>
+      </c>
+      <c r="AP14" s="25">
+        <v>73</v>
+      </c>
       <c r="AQ14" s="50"/>
     </row>
     <row r="15" spans="1:44" ht="10.5" customHeight="1">
       <c r="A15" s="43"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="56"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="41"/>
       <c r="F15" s="40"/>
       <c r="G15" s="39"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="54"/>
       <c r="L15" s="35"/>
       <c r="M15" s="27"/>
@@ -4033,7 +4117,7 @@
       <c r="AQ15" s="50"/>
       <c r="AR15" s="3"/>
     </row>
-    <row r="16" spans="1:44" s="3" customFormat="1" ht="13">
+    <row r="16" spans="1:44" s="3" customFormat="1" ht="10.5">
       <c r="A16" s="43"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -4078,7 +4162,7 @@
       <c r="AP16" s="25"/>
       <c r="AQ16" s="49"/>
     </row>
-    <row r="17" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="17" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A17" s="43"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -4123,7 +4207,7 @@
       <c r="AP17" s="25"/>
       <c r="AQ17" s="44"/>
     </row>
-    <row r="18" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="18" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A18" s="43"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -4168,7 +4252,7 @@
       <c r="AP18" s="25"/>
       <c r="AQ18" s="24"/>
     </row>
-    <row r="19" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="19" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A19" s="43"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -4213,7 +4297,7 @@
       <c r="AP19" s="25"/>
       <c r="AQ19" s="44"/>
     </row>
-    <row r="20" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="20" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A20" s="43"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -4258,7 +4342,7 @@
       <c r="AP20" s="25"/>
       <c r="AQ20" s="49"/>
     </row>
-    <row r="21" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="21" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A21" s="43"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -4303,7 +4387,7 @@
       <c r="AP21" s="25"/>
       <c r="AQ21" s="44"/>
     </row>
-    <row r="22" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="22" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A22" s="43"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -4348,7 +4432,7 @@
       <c r="AP22" s="25"/>
       <c r="AQ22" s="24"/>
     </row>
-    <row r="23" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="23" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A23" s="43"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -4393,7 +4477,7 @@
       <c r="AP23" s="25"/>
       <c r="AQ23" s="44"/>
     </row>
-    <row r="24" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="24" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A24" s="43"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -4438,7 +4522,7 @@
       <c r="AP24" s="25"/>
       <c r="AQ24" s="49"/>
     </row>
-    <row r="25" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="25" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A25" s="43"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -4483,7 +4567,7 @@
       <c r="AP25" s="25"/>
       <c r="AQ25" s="44"/>
     </row>
-    <row r="26" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="26" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A26" s="43"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -4528,7 +4612,7 @@
       <c r="AP26" s="25"/>
       <c r="AQ26" s="24"/>
     </row>
-    <row r="27" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="27" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A27" s="43"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -4573,7 +4657,7 @@
       <c r="AP27" s="25"/>
       <c r="AQ27" s="44"/>
     </row>
-    <row r="28" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="28" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A28" s="43"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -4618,7 +4702,7 @@
       <c r="AP28" s="25"/>
       <c r="AQ28" s="49"/>
     </row>
-    <row r="29" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="29" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A29" s="43"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -4663,7 +4747,7 @@
       <c r="AP29" s="25"/>
       <c r="AQ29" s="44"/>
     </row>
-    <row r="30" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="30" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A30" s="43"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -4708,7 +4792,7 @@
       <c r="AP30" s="25"/>
       <c r="AQ30" s="24"/>
     </row>
-    <row r="31" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="31" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A31" s="43"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -4753,7 +4837,7 @@
       <c r="AP31" s="25"/>
       <c r="AQ31" s="44"/>
     </row>
-    <row r="32" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="32" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A32" s="43"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -4798,7 +4882,7 @@
       <c r="AP32" s="25"/>
       <c r="AQ32" s="49"/>
     </row>
-    <row r="33" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="33" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A33" s="43"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -4843,7 +4927,7 @@
       <c r="AP33" s="25"/>
       <c r="AQ33" s="44"/>
     </row>
-    <row r="34" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="34" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A34" s="43"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -4888,7 +4972,7 @@
       <c r="AP34" s="25"/>
       <c r="AQ34" s="24"/>
     </row>
-    <row r="35" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="35" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A35" s="43"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -4933,7 +5017,7 @@
       <c r="AP35" s="25"/>
       <c r="AQ35" s="44"/>
     </row>
-    <row r="36" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="36" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A36" s="43"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -4978,7 +5062,7 @@
       <c r="AP36" s="25"/>
       <c r="AQ36" s="49"/>
     </row>
-    <row r="37" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="37" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A37" s="43"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -5023,7 +5107,7 @@
       <c r="AP37" s="25"/>
       <c r="AQ37" s="44"/>
     </row>
-    <row r="38" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="38" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A38" s="43"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -5068,7 +5152,7 @@
       <c r="AP38" s="25"/>
       <c r="AQ38" s="24"/>
     </row>
-    <row r="39" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="39" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A39" s="43"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -5113,7 +5197,7 @@
       <c r="AP39" s="25"/>
       <c r="AQ39" s="44"/>
     </row>
-    <row r="40" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="40" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A40" s="43"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -5158,7 +5242,7 @@
       <c r="AP40" s="25"/>
       <c r="AQ40" s="49"/>
     </row>
-    <row r="41" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="41" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A41" s="43"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -5203,7 +5287,7 @@
       <c r="AP41" s="25"/>
       <c r="AQ41" s="44"/>
     </row>
-    <row r="42" spans="1:43" s="3" customFormat="1" ht="13">
+    <row r="42" spans="1:43" s="3" customFormat="1" ht="10.5">
       <c r="A42" s="43"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -5248,7 +5332,7 @@
       <c r="AP42" s="25"/>
       <c r="AQ42" s="24"/>
     </row>
-    <row r="43" spans="1:43" s="3" customFormat="1" ht="14" thickBot="1">
+    <row r="43" spans="1:43" s="3" customFormat="1" ht="11.25" thickBot="1">
       <c r="A43" s="23"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -5295,10 +5379,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
     <mergeCell ref="A13:AQ13"/>
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="AC11:AC12"/>
@@ -5309,32 +5389,22 @@
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AN10"/>
-    <mergeCell ref="AO9:AO12"/>
-    <mergeCell ref="AP9:AP12"/>
-    <mergeCell ref="AQ9:AQ12"/>
+    <mergeCell ref="AH11:AH12"/>
     <mergeCell ref="AI11:AI12"/>
     <mergeCell ref="AJ11:AJ12"/>
     <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AF9:AH10"/>
-    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="AQ9:AQ12"/>
+    <mergeCell ref="AL11:AL12"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
@@ -5342,17 +5412,31 @@
     <mergeCell ref="D9:F10"/>
     <mergeCell ref="G9:H12"/>
     <mergeCell ref="I9:K10"/>
+    <mergeCell ref="AP9:AP12"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:X12"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:X12"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AL9:AN10"/>
+    <mergeCell ref="AO9:AO12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="AA11:AA12"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AB9:AE10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Z11:Z12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
 </worksheet>
